--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5656</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,177 +1029,177 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>43929</v>
+        <v>43963</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F28" t="n">
-        <v>2137</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>-1</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>43930</v>
+        <v>43964</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>2238</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>2037</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>-1</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>2138</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>43913</v>
+        <v>43928</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F32" t="n">
-        <v>526</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>-1</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43914</v>
+        <v>43929</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33" t="n">
-        <v>627</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>932</v>
+        <v>526</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>-1</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>1033</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36">
@@ -1209,19 +1209,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="D36" t="n">
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>1235</v>
+        <v>932</v>
       </c>
     </row>
     <row r="37">
@@ -1234,7 +1234,7 @@
         <v>-1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1243,139 +1243,139 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>1336</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>43937</v>
+        <v>43920</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>2955</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>-1</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>43938</v>
+        <v>43921</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>3056</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>43925</v>
+        <v>43937</v>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>1745</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>-1</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>43926</v>
+        <v>43938</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>1846</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>943</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>-1</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>43918</v>
+        <v>43926</v>
       </c>
       <c r="D43" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1044</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="44">
@@ -1385,19 +1385,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F44" t="n">
-        <v>1549</v>
+        <v>943</v>
       </c>
     </row>
     <row r="45">
@@ -1410,104 +1410,104 @@
         <v>-1</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D45" t="n">
+        <v>14</v>
+      </c>
+      <c r="E45" t="n">
         <v>15</v>
       </c>
-      <c r="E45" t="n">
-        <v>16</v>
-      </c>
       <c r="F45" t="n">
-        <v>1650</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>43909</v>
+        <v>43923</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E46" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F46" t="n">
-        <v>136</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>-1</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>43910</v>
+        <v>43924</v>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
-        <v>237</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D48" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>238</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>-1</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>339</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50">
@@ -1520,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43955</v>
+        <v>43910</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>4783</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51">
@@ -1542,60 +1542,60 @@
         <v>-1</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43956</v>
+        <v>43911</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>4884</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>43927</v>
+        <v>43955</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F52" t="n">
-        <v>1957</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>-1</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>43928</v>
+        <v>43956</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F53" t="n">
-        <v>2058</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="54">
@@ -1605,19 +1605,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="D54" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>5492</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="55">
@@ -1630,60 +1630,60 @@
         <v>-1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E55" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
-        <v>5593</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>43909</v>
+        <v>43962</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E56" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F56" t="n">
-        <v>146</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>-1</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>43910</v>
+        <v>43963</v>
       </c>
       <c r="D57" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F57" t="n">
-        <v>247</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="58">
@@ -1693,19 +1693,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D58" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59">
@@ -1718,104 +1718,104 @@
         <v>-1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D59" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E59" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="D60" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E60" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F60" t="n">
-        <v>3682</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>-1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D61" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F61" t="n">
-        <v>3783</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43912</v>
+        <v>43944</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>452</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>43913</v>
+        <v>43945</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>553</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="64">
@@ -1825,19 +1825,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65">
@@ -1850,104 +1850,104 @@
         <v>-1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43920</v>
+        <v>43925</v>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>1264</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>-1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43921</v>
+        <v>43926</v>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>1365</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E68" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>-1</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="70">
@@ -1957,19 +1957,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D70" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="71">
@@ -1982,16 +1982,16 @@
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D71" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F71" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="72">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D72" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="73">
@@ -2026,16 +2026,16 @@
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D73" t="n">
+        <v>12</v>
+      </c>
+      <c r="E73" t="n">
         <v>13</v>
       </c>
-      <c r="E73" t="n">
-        <v>14</v>
-      </c>
       <c r="F73" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="74">
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D74" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E74" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F74" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="75">
@@ -2070,29 +2070,29 @@
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D75" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E75" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F75" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D76" t="n">
         <v>18</v>
@@ -2101,20 +2101,20 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D77" t="n">
         <v>17</v>
@@ -2123,139 +2123,139 @@
         <v>18</v>
       </c>
       <c r="F77" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D78" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D79" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E79" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F79" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D80" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D81" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E81" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F81" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F82" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F83" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="84">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E84" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85">
@@ -2290,104 +2290,104 @@
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="D86" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F86" t="n">
-        <v>1988</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="D87" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>2089</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43917</v>
+        <v>43927</v>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F88" t="n">
-        <v>982</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43918</v>
+        <v>43928</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F89" t="n">
-        <v>1083</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="90">
@@ -2397,19 +2397,19 @@
         </is>
       </c>
       <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D90" t="n">
         <v>4</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D90" t="n">
-        <v>10</v>
-      </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="91">
@@ -2422,16 +2422,16 @@
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D91" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="92">
@@ -2441,19 +2441,19 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D92" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F92" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="93">
@@ -2466,16 +2466,16 @@
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D93" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E93" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="94">
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D94" t="n">
         <v>14</v>
@@ -2497,7 +2497,7 @@
         <v>13</v>
       </c>
       <c r="F94" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="95">
@@ -2510,7 +2510,7 @@
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D95" t="n">
         <v>13</v>
@@ -2519,51 +2519,51 @@
         <v>14</v>
       </c>
       <c r="F95" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D96" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E96" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F96" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D97" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E97" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F97" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="98">
@@ -2573,19 +2573,19 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D98" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E98" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F98" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="99">
@@ -2598,144 +2598,144 @@
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D99" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E99" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F99" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
       <c r="C100" s="2" t="n">
-        <v>43908</v>
+        <v>43923</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
-      </c>
-      <c r="E100" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E100" t="n">
+        <v>32</v>
+      </c>
       <c r="F100" t="n">
-        <v>77</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43909</v>
+        <v>43924</v>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E101" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F101" t="n">
-        <v>178</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D102" t="n">
-        <v>35</v>
-      </c>
-      <c r="E102" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D103" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F103" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D104" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E104" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F104" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D105" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E105" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F105" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="106">
@@ -2748,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D106" t="n">
         <v>15</v>
@@ -2757,7 +2757,7 @@
         <v>14</v>
       </c>
       <c r="F106" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="107">
@@ -2770,7 +2770,7 @@
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D107" t="n">
         <v>14</v>
@@ -2779,139 +2779,139 @@
         <v>15</v>
       </c>
       <c r="F107" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D108" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E108" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F108" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D109" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F109" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43942</v>
+        <v>43945</v>
       </c>
       <c r="D110" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E110" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F110" t="n">
-        <v>3519</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43943</v>
+        <v>43946</v>
       </c>
       <c r="D111" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E111" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F111" t="n">
-        <v>3620</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F112" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D113" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E113" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F113" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="114">
@@ -2921,19 +2921,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D114" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="115">
@@ -2946,103 +2946,147 @@
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E115" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F115" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D116" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E116" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F116" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D117" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F118" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>43938</v>
+      </c>
+      <c r="D119" t="n">
+        <v>33</v>
+      </c>
+      <c r="E119" t="n">
+        <v>34</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>974</t>
         </is>
       </c>
-      <c r="B119" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C119" s="2" t="n">
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C121" s="2" t="n">
         <v>43961</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D121" t="n">
         <v>1</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E121" t="n">
         <v>2</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F121" t="n">
         <v>5453</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5757</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5858</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5959</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6060</v>
+        <v>6161</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6161</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6262</v>
+        <v>6363</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6363</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6464</v>
+        <v>6565</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,133 +457,133 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43924</v>
+        <v>43971</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>1618</v>
+        <v>6364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>-1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43925</v>
+        <v>43972</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>1719</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43958</v>
+        <v>43924</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>5054</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>02</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>-1</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43959</v>
+        <v>43925</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>5155</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>43938</v>
+        <v>43958</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>3035</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>-1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43939</v>
+        <v>43959</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>3136</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="8">
@@ -593,19 +593,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43943</v>
+        <v>43938</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>3540</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="9">
@@ -618,7 +618,7 @@
         <v>-1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43944</v>
+        <v>43939</v>
       </c>
       <c r="D9" t="n">
         <v>5</v>
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>3641</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="10">
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>43956</v>
+        <v>43943</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>4853</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>-1</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>43957</v>
+        <v>43944</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
@@ -671,51 +671,51 @@
         <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>4954</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43912</v>
+        <v>43956</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>410</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>-1</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>43913</v>
+        <v>43957</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
-        <v>511</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="14">
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>43931</v>
+        <v>43912</v>
       </c>
       <c r="D14" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
-        <v>2329</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15">
@@ -750,66 +750,66 @@
         <v>-1</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43932</v>
+        <v>43913</v>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F15" t="n">
-        <v>2430</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>43926</v>
+        <v>43931</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>1828</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>-1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>43927</v>
+        <v>43932</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>1929</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -819,19 +819,19 @@
         <v>43926</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -841,13 +841,13 @@
         <v>43927</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="20">
@@ -857,19 +857,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>43941</v>
+        <v>43926</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>3345</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="21">
@@ -882,7 +882,7 @@
         <v>-1</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>43942</v>
+        <v>43927</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
@@ -891,95 +891,95 @@
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>3446</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>43948</v>
+        <v>43941</v>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>4053</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>-1</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>43949</v>
+        <v>43942</v>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>4154</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>43923</v>
+        <v>43948</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F24" t="n">
-        <v>1529</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>-1</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F25" t="n">
-        <v>1630</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="26">
@@ -989,19 +989,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>43933</v>
+        <v>43923</v>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>2539</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="27">
@@ -1014,16 +1014,16 @@
         <v>-1</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>43934</v>
+        <v>43924</v>
       </c>
       <c r="D27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" t="n">
         <v>8</v>
       </c>
-      <c r="E27" t="n">
-        <v>9</v>
-      </c>
       <c r="F27" t="n">
-        <v>2640</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="28">
@@ -1036,16 +1036,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>43963</v>
+        <v>43933</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>5569</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="29">
@@ -1058,192 +1058,192 @@
         <v>-1</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>43964</v>
+        <v>43934</v>
       </c>
       <c r="D29" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>5670</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>43929</v>
+        <v>43963</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>2137</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>-1</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>43930</v>
+        <v>43964</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>2238</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>2037</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>-1</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>2138</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>43913</v>
+        <v>43928</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" t="n">
-        <v>526</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>-1</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>43914</v>
+        <v>43929</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
-        <v>627</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>932</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>-1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>1033</v>
+        <v>627</v>
       </c>
     </row>
     <row r="38">
@@ -1253,19 +1253,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="D38" t="n">
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>1235</v>
+        <v>932</v>
       </c>
     </row>
     <row r="39">
@@ -1278,7 +1278,7 @@
         <v>-1</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1287,139 +1287,139 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>1336</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>43937</v>
+        <v>43920</v>
       </c>
       <c r="D40" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>2955</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>-1</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>43938</v>
+        <v>43921</v>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>3056</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>43925</v>
+        <v>43937</v>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>1745</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>-1</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>43926</v>
+        <v>43938</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
-        <v>1846</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>943</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>-1</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>43918</v>
+        <v>43926</v>
       </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1044</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="46">
@@ -1429,19 +1429,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>1549</v>
+        <v>943</v>
       </c>
     </row>
     <row r="47">
@@ -1454,104 +1454,104 @@
         <v>-1</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D47" t="n">
+        <v>14</v>
+      </c>
+      <c r="E47" t="n">
         <v>15</v>
       </c>
-      <c r="E47" t="n">
-        <v>16</v>
-      </c>
       <c r="F47" t="n">
-        <v>1650</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43909</v>
+        <v>43923</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F48" t="n">
-        <v>136</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>-1</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43910</v>
+        <v>43924</v>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F49" t="n">
-        <v>237</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>238</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>-1</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F51" t="n">
-        <v>339</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52">
@@ -1564,16 +1564,16 @@
         <v>0</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>43955</v>
+        <v>43910</v>
       </c>
       <c r="D52" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>4783</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53">
@@ -1586,60 +1586,60 @@
         <v>-1</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>43956</v>
+        <v>43911</v>
       </c>
       <c r="D53" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>4884</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>43927</v>
+        <v>43955</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>1957</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>-1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43928</v>
+        <v>43956</v>
       </c>
       <c r="D55" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F55" t="n">
-        <v>2058</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="56">
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>5492</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="57">
@@ -1674,60 +1674,60 @@
         <v>-1</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="D57" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
-        <v>5593</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>43909</v>
+        <v>43962</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F58" t="n">
-        <v>146</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>-1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43910</v>
+        <v>43963</v>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F59" t="n">
-        <v>247</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="60">
@@ -1737,19 +1737,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D60" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61">
@@ -1762,104 +1762,104 @@
         <v>-1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D61" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E61" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F61" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="D62" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E62" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F62" t="n">
-        <v>3682</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E63" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F63" t="n">
-        <v>3783</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43912</v>
+        <v>43944</v>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>452</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>-1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>43913</v>
+        <v>43945</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E65" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>553</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="66">
@@ -1869,19 +1869,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67">
@@ -1894,104 +1894,104 @@
         <v>-1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43920</v>
+        <v>43925</v>
       </c>
       <c r="D68" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>1264</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>-1</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43921</v>
+        <v>43926</v>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>1365</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D70" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="72">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D72" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="73">
@@ -2026,16 +2026,16 @@
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F73" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="74">
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D74" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="75">
@@ -2070,16 +2070,16 @@
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D75" t="n">
+        <v>12</v>
+      </c>
+      <c r="E75" t="n">
         <v>13</v>
       </c>
-      <c r="E75" t="n">
-        <v>14</v>
-      </c>
       <c r="F75" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="76">
@@ -2089,19 +2089,19 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D76" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="77">
@@ -2114,29 +2114,29 @@
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D77" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E77" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F77" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D78" t="n">
         <v>18</v>
@@ -2145,20 +2145,20 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D79" t="n">
         <v>17</v>
@@ -2167,139 +2167,139 @@
         <v>18</v>
       </c>
       <c r="F79" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D80" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D81" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E81" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F81" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D82" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F83" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F84" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F85" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="86">
@@ -2309,19 +2309,19 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87">
@@ -2334,104 +2334,104 @@
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="D88" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F88" t="n">
-        <v>1988</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="D89" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>2089</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43917</v>
+        <v>43927</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F90" t="n">
-        <v>982</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43918</v>
+        <v>43928</v>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F91" t="n">
-        <v>1083</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="92">
@@ -2441,19 +2441,19 @@
         </is>
       </c>
       <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D92" t="n">
         <v>4</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D92" t="n">
-        <v>10</v>
-      </c>
       <c r="E92" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="93">
@@ -2466,16 +2466,16 @@
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D93" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="94">
@@ -2485,19 +2485,19 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D94" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="95">
@@ -2510,16 +2510,16 @@
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D95" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E95" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="96">
@@ -2532,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D96" t="n">
         <v>14</v>
@@ -2541,7 +2541,7 @@
         <v>13</v>
       </c>
       <c r="F96" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="97">
@@ -2554,7 +2554,7 @@
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D97" t="n">
         <v>13</v>
@@ -2563,51 +2563,51 @@
         <v>14</v>
       </c>
       <c r="F97" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D98" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E98" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F98" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D99" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E99" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="100">
@@ -2617,19 +2617,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D100" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E100" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="101">
@@ -2642,144 +2642,144 @@
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D101" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F101" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3</v>
+      </c>
       <c r="C102" s="2" t="n">
-        <v>43908</v>
+        <v>43923</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
-      </c>
-      <c r="E102" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E102" t="n">
+        <v>32</v>
+      </c>
       <c r="F102" t="n">
-        <v>77</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43909</v>
+        <v>43924</v>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E103" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F103" t="n">
-        <v>178</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D104" t="n">
-        <v>35</v>
-      </c>
-      <c r="E104" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D105" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F105" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D106" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E106" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F106" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D107" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E107" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F107" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="108">
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D108" t="n">
         <v>15</v>
@@ -2801,7 +2801,7 @@
         <v>14</v>
       </c>
       <c r="F108" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="109">
@@ -2814,7 +2814,7 @@
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D109" t="n">
         <v>14</v>
@@ -2823,139 +2823,139 @@
         <v>15</v>
       </c>
       <c r="F109" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>1</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D110" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F110" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D111" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E111" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F111" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43942</v>
+        <v>43945</v>
       </c>
       <c r="D112" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E112" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F112" t="n">
-        <v>3519</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43943</v>
+        <v>43946</v>
       </c>
       <c r="D113" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E113" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F113" t="n">
-        <v>3620</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F114" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E115" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F115" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="116">
@@ -2965,19 +2965,19 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D116" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E116" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="117">
@@ -2990,103 +2990,147 @@
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D117" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E117" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F117" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D118" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E118" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F118" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D119" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E119" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D120" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F120" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>43938</v>
+      </c>
+      <c r="D121" t="n">
+        <v>33</v>
+      </c>
+      <c r="E121" t="n">
+        <v>34</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>974</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C121" s="2" t="n">
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C123" s="2" t="n">
         <v>43961</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D123" t="n">
         <v>1</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E123" t="n">
         <v>2</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F123" t="n">
         <v>5453</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6565</v>
+        <v>6666</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6666</v>
+        <v>6767</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6767</v>
+        <v>6868</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6868</v>
+        <v>6969</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F123"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3134,6 +3134,50 @@
         <v>5453</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D124" t="n">
+        <v>3</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6969</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,45 +1425,45 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>43917</v>
+        <v>43976</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F46" t="n">
-        <v>943</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>-1</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>43918</v>
+        <v>43977</v>
       </c>
       <c r="D47" t="n">
+        <v>13</v>
+      </c>
+      <c r="E47" t="n">
         <v>14</v>
       </c>
-      <c r="E47" t="n">
-        <v>15</v>
-      </c>
       <c r="F47" t="n">
-        <v>1044</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="48">
@@ -1473,19 +1473,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F48" t="n">
-        <v>1549</v>
+        <v>943</v>
       </c>
     </row>
     <row r="49">
@@ -1498,104 +1498,104 @@
         <v>-1</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D49" t="n">
+        <v>14</v>
+      </c>
+      <c r="E49" t="n">
         <v>15</v>
       </c>
-      <c r="E49" t="n">
-        <v>16</v>
-      </c>
       <c r="F49" t="n">
-        <v>1650</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43909</v>
+        <v>43923</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F50" t="n">
-        <v>136</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>-1</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43910</v>
+        <v>43924</v>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F51" t="n">
-        <v>237</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>238</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>-1</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F53" t="n">
-        <v>339</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54">
@@ -1608,16 +1608,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>43955</v>
+        <v>43910</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>4783</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55">
@@ -1630,60 +1630,60 @@
         <v>-1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43956</v>
+        <v>43911</v>
       </c>
       <c r="D55" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>4884</v>
+        <v>339</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>43927</v>
+        <v>43955</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>1957</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>-1</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>43928</v>
+        <v>43956</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F57" t="n">
-        <v>2058</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="58">
@@ -1693,19 +1693,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>5492</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="59">
@@ -1718,60 +1718,60 @@
         <v>-1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
-        <v>5593</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43909</v>
+        <v>43962</v>
       </c>
       <c r="D60" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F60" t="n">
-        <v>146</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>-1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43910</v>
+        <v>43963</v>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>247</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="62">
@@ -1781,19 +1781,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D62" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63">
@@ -1806,104 +1806,104 @@
         <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D63" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="D64" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F64" t="n">
-        <v>3682</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>-1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D65" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F65" t="n">
-        <v>3783</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43912</v>
+        <v>43944</v>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>452</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>-1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43913</v>
+        <v>43945</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F67" t="n">
-        <v>553</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="68">
@@ -1913,19 +1913,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69">
@@ -1938,104 +1938,104 @@
         <v>-1</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43920</v>
+        <v>43925</v>
       </c>
       <c r="D70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>1264</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43921</v>
+        <v>43926</v>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>1365</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D72" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="74">
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D74" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75">
@@ -2070,16 +2070,16 @@
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="76">
@@ -2089,19 +2089,19 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D76" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="77">
@@ -2114,16 +2114,16 @@
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D77" t="n">
+        <v>12</v>
+      </c>
+      <c r="E77" t="n">
         <v>13</v>
       </c>
-      <c r="E77" t="n">
-        <v>14</v>
-      </c>
       <c r="F77" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="78">
@@ -2133,19 +2133,19 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D78" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E78" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F78" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="79">
@@ -2158,29 +2158,29 @@
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D79" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E79" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F79" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D80" t="n">
         <v>18</v>
@@ -2189,20 +2189,20 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D81" t="n">
         <v>17</v>
@@ -2211,139 +2211,139 @@
         <v>18</v>
       </c>
       <c r="F81" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D82" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E83" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F83" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F85" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F86" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F87" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="88">
@@ -2353,19 +2353,19 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89">
@@ -2378,104 +2378,104 @@
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="D90" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
-        <v>1988</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="D91" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E91" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>2089</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43917</v>
+        <v>43927</v>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F92" t="n">
-        <v>982</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43918</v>
+        <v>43928</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E93" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F93" t="n">
-        <v>1083</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="94">
@@ -2485,19 +2485,19 @@
         </is>
       </c>
       <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D94" t="n">
         <v>4</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D94" t="n">
-        <v>10</v>
-      </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F94" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="95">
@@ -2510,16 +2510,16 @@
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D95" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="96">
@@ -2529,19 +2529,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D96" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="97">
@@ -2554,16 +2554,16 @@
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D97" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E97" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="98">
@@ -2576,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D98" t="n">
         <v>14</v>
@@ -2585,7 +2585,7 @@
         <v>13</v>
       </c>
       <c r="F98" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="99">
@@ -2598,7 +2598,7 @@
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D99" t="n">
         <v>13</v>
@@ -2607,51 +2607,51 @@
         <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D100" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E100" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F100" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D101" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E101" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F101" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="102">
@@ -2661,19 +2661,19 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D102" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E102" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F102" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="103">
@@ -2686,144 +2686,144 @@
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D103" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E103" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F103" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3</v>
+      </c>
       <c r="C104" s="2" t="n">
-        <v>43908</v>
+        <v>43923</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
-      </c>
-      <c r="E104" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E104" t="n">
+        <v>32</v>
+      </c>
       <c r="F104" t="n">
-        <v>77</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43909</v>
+        <v>43924</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E105" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F105" t="n">
-        <v>178</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D106" t="n">
-        <v>35</v>
-      </c>
-      <c r="E106" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D107" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D108" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E108" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F108" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D109" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E109" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F109" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="110">
@@ -2836,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D110" t="n">
         <v>15</v>
@@ -2845,7 +2845,7 @@
         <v>14</v>
       </c>
       <c r="F110" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="111">
@@ -2858,7 +2858,7 @@
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D111" t="n">
         <v>14</v>
@@ -2867,139 +2867,139 @@
         <v>15</v>
       </c>
       <c r="F111" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D112" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E112" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F112" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D113" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E113" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F113" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43942</v>
+        <v>43945</v>
       </c>
       <c r="D114" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E114" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F114" t="n">
-        <v>3519</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43943</v>
+        <v>43946</v>
       </c>
       <c r="D115" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E115" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F115" t="n">
-        <v>3620</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D116" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F116" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D117" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E117" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F117" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="118">
@@ -3009,19 +3009,19 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D118" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E118" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="119">
@@ -3034,104 +3034,104 @@
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D119" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E119" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F119" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D120" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E120" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F120" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D121" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E121" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F122" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43961</v>
+        <v>43938</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F123" t="n">
-        <v>5453</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="124">
@@ -3144,16 +3144,16 @@
         <v>1</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="125">
@@ -3166,15 +3166,59 @@
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C127" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D127" t="n">
         <v>2</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E127" t="n">
         <v>3</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F127" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7070</v>
+        <v>7171</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7171</v>
+        <v>7272</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7272</v>
+        <v>7373</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,89 +2437,89 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43927</v>
+        <v>43979</v>
       </c>
       <c r="D92" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F92" t="n">
-        <v>1988</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43928</v>
+        <v>43980</v>
       </c>
       <c r="D93" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F93" t="n">
-        <v>2089</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43917</v>
+        <v>43927</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E94" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F94" t="n">
-        <v>982</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43918</v>
+        <v>43928</v>
       </c>
       <c r="D95" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E95" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F95" t="n">
-        <v>1083</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="96">
@@ -2529,19 +2529,19 @@
         </is>
       </c>
       <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D96" t="n">
         <v>4</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D96" t="n">
-        <v>10</v>
-      </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F96" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="97">
@@ -2554,16 +2554,16 @@
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D97" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="98">
@@ -2573,19 +2573,19 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D98" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="99">
@@ -2598,16 +2598,16 @@
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D99" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="100">
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D100" t="n">
         <v>14</v>
@@ -2629,7 +2629,7 @@
         <v>13</v>
       </c>
       <c r="F100" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="101">
@@ -2642,7 +2642,7 @@
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D101" t="n">
         <v>13</v>
@@ -2651,51 +2651,51 @@
         <v>14</v>
       </c>
       <c r="F101" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D102" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E102" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F102" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D103" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E103" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F103" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="104">
@@ -2705,19 +2705,19 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D104" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E104" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F104" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="105">
@@ -2730,144 +2730,144 @@
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D105" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E105" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F105" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
       <c r="C106" s="2" t="n">
-        <v>43908</v>
+        <v>43923</v>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
-      </c>
-      <c r="E106" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E106" t="n">
+        <v>32</v>
+      </c>
       <c r="F106" t="n">
-        <v>77</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43909</v>
+        <v>43924</v>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F107" t="n">
-        <v>178</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D108" t="n">
-        <v>35</v>
-      </c>
-      <c r="E108" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D109" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D110" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E110" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F110" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D111" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E111" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F111" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="112">
@@ -2880,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D112" t="n">
         <v>15</v>
@@ -2889,7 +2889,7 @@
         <v>14</v>
       </c>
       <c r="F112" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="113">
@@ -2902,7 +2902,7 @@
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D113" t="n">
         <v>14</v>
@@ -2911,139 +2911,139 @@
         <v>15</v>
       </c>
       <c r="F113" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>1</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D114" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E114" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F114" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D115" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E115" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F115" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43942</v>
+        <v>43945</v>
       </c>
       <c r="D116" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E116" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F116" t="n">
-        <v>3519</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43943</v>
+        <v>43946</v>
       </c>
       <c r="D117" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E117" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F117" t="n">
-        <v>3620</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F118" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E119" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F119" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="120">
@@ -3053,19 +3053,19 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D120" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E120" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="121">
@@ -3078,104 +3078,104 @@
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D121" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E121" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F121" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D122" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E122" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F122" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D123" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E123" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E124" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F124" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43961</v>
+        <v>43938</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F125" t="n">
-        <v>5453</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="126">
@@ -3188,16 +3188,16 @@
         <v>1</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="127">
@@ -3210,15 +3210,59 @@
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C129" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D129" t="n">
         <v>2</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E129" t="n">
         <v>3</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F129" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7373</v>
+        <v>7474</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7474</v>
+        <v>7575</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7575</v>
+        <v>7676</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7676</v>
+        <v>7777</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7777</v>
+        <v>7878</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7878</v>
+        <v>7979</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7979</v>
+        <v>8080</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8080</v>
+        <v>8181</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8181</v>
+        <v>8282</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8282</v>
+        <v>8383</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8383</v>
+        <v>8484</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,51 +809,51 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43926</v>
+        <v>43990</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F18" t="n">
-        <v>1828</v>
+        <v>8288</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>06</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>-1</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43927</v>
+        <v>43991</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F19" t="n">
-        <v>1929</v>
+        <v>8389</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -863,19 +863,19 @@
         <v>43926</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -885,13 +885,13 @@
         <v>43927</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>1931</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="22">
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>43941</v>
+        <v>43926</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>3345</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="23">
@@ -926,7 +926,7 @@
         <v>-1</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>43942</v>
+        <v>43927</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
@@ -935,139 +935,139 @@
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>3446</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>43948</v>
+        <v>43941</v>
       </c>
       <c r="D24" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>4053</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>-1</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>43949</v>
+        <v>43942</v>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>4154</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>43923</v>
+        <v>43948</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F26" t="n">
-        <v>1529</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>-1</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F27" t="n">
-        <v>1630</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>43933</v>
+        <v>43990</v>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F28" t="n">
-        <v>2539</v>
+        <v>8295</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>-1</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>43934</v>
+        <v>43991</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F29" t="n">
-        <v>2640</v>
+        <v>8396</v>
       </c>
     </row>
     <row r="30">
@@ -1077,19 +1077,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>43963</v>
+        <v>43923</v>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>5569</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="31">
@@ -1102,117 +1102,117 @@
         <v>-1</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>43964</v>
+        <v>43924</v>
       </c>
       <c r="D31" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>5670</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>43929</v>
+        <v>43933</v>
       </c>
       <c r="D32" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>2137</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>-1</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43930</v>
+        <v>43934</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>2238</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F34" t="n">
-        <v>2037</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>-1</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>43929</v>
+        <v>43964</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>2138</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>43913</v>
+        <v>43929</v>
       </c>
       <c r="D36" t="n">
         <v>3</v>
@@ -1221,20 +1221,20 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>526</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>-1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>43914</v>
+        <v>43930</v>
       </c>
       <c r="D37" t="n">
         <v>2</v>
@@ -1243,887 +1243,887 @@
         <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>627</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>43917</v>
+        <v>43928</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>932</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>-1</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>43918</v>
+        <v>43929</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>1033</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>43920</v>
+        <v>43913</v>
       </c>
       <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
       <c r="F40" t="n">
-        <v>1235</v>
+        <v>526</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>-1</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>43921</v>
+        <v>43914</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>1336</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>43937</v>
+        <v>43917</v>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>2955</v>
+        <v>932</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>-1</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>43938</v>
+        <v>43918</v>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>3056</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>43925</v>
+        <v>43920</v>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>1745</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>-1</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>43926</v>
+        <v>43921</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>1846</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>43976</v>
+        <v>43937</v>
       </c>
       <c r="D46" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>6896</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>-1</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>43977</v>
+        <v>43938</v>
       </c>
       <c r="D47" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>6997</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43917</v>
+        <v>43925</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
-        <v>943</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>-1</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43918</v>
+        <v>43926</v>
       </c>
       <c r="D49" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>1044</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43923</v>
+        <v>43976</v>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E50" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F50" t="n">
-        <v>1549</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>-1</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43924</v>
+        <v>43977</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E51" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F51" t="n">
-        <v>1650</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>2</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>43909</v>
+        <v>43917</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F52" t="n">
-        <v>136</v>
+        <v>943</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>-1</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>43910</v>
+        <v>43918</v>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E53" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>237</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>43910</v>
+        <v>43923</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F54" t="n">
-        <v>238</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>-1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43911</v>
+        <v>43924</v>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F55" t="n">
-        <v>339</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>43955</v>
+        <v>43909</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>4783</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>-1</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>43956</v>
+        <v>43910</v>
       </c>
       <c r="D57" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E57" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F57" t="n">
-        <v>4884</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>43927</v>
+        <v>43910</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>1957</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>-1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43928</v>
+        <v>43911</v>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>2058</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43962</v>
+        <v>43955</v>
       </c>
       <c r="D60" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
-        <v>5492</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>-1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43963</v>
+        <v>43956</v>
       </c>
       <c r="D61" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>5593</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43909</v>
+        <v>43927</v>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>146</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>43910</v>
+        <v>43928</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
-        <v>247</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43937</v>
+        <v>43962</v>
       </c>
       <c r="D64" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E64" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F64" t="n">
-        <v>2974</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>-1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>43938</v>
+        <v>43963</v>
       </c>
       <c r="D65" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F65" t="n">
-        <v>3075</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43944</v>
+        <v>43909</v>
       </c>
       <c r="D66" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>3682</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>-1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43945</v>
+        <v>43910</v>
       </c>
       <c r="D67" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F67" t="n">
-        <v>3783</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43912</v>
+        <v>43937</v>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E68" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F68" t="n">
-        <v>452</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>-1</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43913</v>
+        <v>43938</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F69" t="n">
-        <v>553</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43925</v>
+        <v>43944</v>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F70" t="n">
-        <v>1765</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43926</v>
+        <v>43945</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>1866</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43920</v>
+        <v>43912</v>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>1264</v>
+        <v>452</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43921</v>
+        <v>43913</v>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>1365</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>1</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43914</v>
+        <v>43925</v>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>661</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43915</v>
+        <v>43926</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>762</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="D76" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>1065</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="D77" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>1166</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="78">
@@ -2133,19 +2133,19 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43924</v>
+        <v>43914</v>
       </c>
       <c r="D78" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E78" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>1671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="79">
@@ -2158,16 +2158,16 @@
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43925</v>
+        <v>43915</v>
       </c>
       <c r="D79" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E79" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>1772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="80">
@@ -2177,19 +2177,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D80" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E80" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>2378</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="81">
@@ -2202,176 +2202,176 @@
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43932</v>
+        <v>43919</v>
       </c>
       <c r="D81" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F81" t="n">
-        <v>2479</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43915</v>
+        <v>43924</v>
       </c>
       <c r="D82" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E82" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F82" t="n">
-        <v>767</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="D83" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E83" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F83" t="n">
-        <v>868</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43910</v>
+        <v>43931</v>
       </c>
       <c r="D84" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E84" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>265</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43911</v>
+        <v>43932</v>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E85" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F85" t="n">
-        <v>366</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43943</v>
+        <v>43915</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>3599</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43944</v>
+        <v>43916</v>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F87" t="n">
-        <v>3700</v>
+        <v>868</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>43910</v>
       </c>
       <c r="D88" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2381,233 +2381,233 @@
         <v>43911</v>
       </c>
       <c r="D89" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43929</v>
+        <v>43943</v>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F90" t="n">
-        <v>2186</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43930</v>
+        <v>43944</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F91" t="n">
-        <v>2287</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43979</v>
+        <v>43910</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>7237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43980</v>
+        <v>43911</v>
       </c>
       <c r="D93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>7338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="D94" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>1988</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="D95" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>2089</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43917</v>
+        <v>43979</v>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F96" t="n">
-        <v>982</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43918</v>
+        <v>43980</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F97" t="n">
-        <v>1083</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43930</v>
+        <v>43927</v>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F98" t="n">
-        <v>2295</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43931</v>
+        <v>43928</v>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F99" t="n">
-        <v>2396</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="100">
@@ -2617,19 +2617,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43945</v>
+        <v>43917</v>
       </c>
       <c r="D100" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E100" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>3810</v>
+        <v>982</v>
       </c>
     </row>
     <row r="101">
@@ -2642,16 +2642,16 @@
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43946</v>
+        <v>43918</v>
       </c>
       <c r="D101" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E101" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>3911</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="102">
@@ -2661,19 +2661,19 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43948</v>
+        <v>43930</v>
       </c>
       <c r="D102" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E102" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>4113</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="103">
@@ -2686,179 +2686,183 @@
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43949</v>
+        <v>43931</v>
       </c>
       <c r="D103" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E103" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F103" t="n">
-        <v>4214</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43920</v>
+        <v>43945</v>
       </c>
       <c r="D104" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E104" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F104" t="n">
-        <v>1288</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43921</v>
+        <v>43946</v>
       </c>
       <c r="D105" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E105" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F105" t="n">
-        <v>1389</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43923</v>
+        <v>43948</v>
       </c>
       <c r="D106" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E106" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F106" t="n">
-        <v>1591</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="D107" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E107" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F107" t="n">
-        <v>1692</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
       <c r="C108" s="2" t="n">
-        <v>43908</v>
+        <v>43920</v>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
-      </c>
-      <c r="E108" t="inlineStr"/>
+        <v>33</v>
+      </c>
+      <c r="E108" t="n">
+        <v>31</v>
+      </c>
       <c r="F108" t="n">
-        <v>77</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43909</v>
+        <v>43921</v>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F109" t="n">
-        <v>178</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43938</v>
+        <v>43923</v>
       </c>
       <c r="D110" t="n">
         <v>35</v>
       </c>
       <c r="E110" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F110" t="n">
-        <v>3109</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43939</v>
+        <v>43924</v>
       </c>
       <c r="D111" t="n">
         <v>34</v>
@@ -2867,402 +2871,530 @@
         <v>35</v>
       </c>
       <c r="F111" t="n">
-        <v>3210</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" s="2" t="n">
-        <v>43924</v>
+        <v>43908</v>
       </c>
       <c r="D112" t="n">
-        <v>15</v>
-      </c>
-      <c r="E112" t="n">
-        <v>14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>1697</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43925</v>
+        <v>43909</v>
       </c>
       <c r="D113" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>1798</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43930</v>
+        <v>43938</v>
       </c>
       <c r="D114" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F114" t="n">
-        <v>2303</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43931</v>
+        <v>43939</v>
       </c>
       <c r="D115" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E115" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F115" t="n">
-        <v>2404</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43945</v>
+        <v>43924</v>
       </c>
       <c r="D116" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E116" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F116" t="n">
-        <v>3821</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43946</v>
+        <v>43925</v>
       </c>
       <c r="D117" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E117" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F117" t="n">
-        <v>3922</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43942</v>
+        <v>43930</v>
       </c>
       <c r="D118" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E118" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F118" t="n">
-        <v>3519</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43943</v>
+        <v>43931</v>
       </c>
       <c r="D119" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E119" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F119" t="n">
-        <v>3620</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43923</v>
+        <v>43945</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F120" t="n">
-        <v>1605</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43924</v>
+        <v>43946</v>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E121" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F121" t="n">
-        <v>1706</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43943</v>
+        <v>43990</v>
       </c>
       <c r="D122" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E122" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F122" t="n">
-        <v>3625</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43944</v>
+        <v>43991</v>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="F123" t="n">
-        <v>3726</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43937</v>
+        <v>43942</v>
       </c>
       <c r="D124" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E124" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F124" t="n">
-        <v>3023</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43938</v>
+        <v>43943</v>
       </c>
       <c r="D125" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E125" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="F125" t="n">
-        <v>3124</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43960</v>
+        <v>43923</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F126" t="n">
-        <v>5352</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43961</v>
+        <v>43924</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F127" t="n">
-        <v>5453</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43975</v>
+        <v>43943</v>
       </c>
       <c r="D128" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F128" t="n">
-        <v>6867</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>43944</v>
+      </c>
+      <c r="D129" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>43937</v>
+      </c>
+      <c r="D130" t="n">
+        <v>34</v>
+      </c>
+      <c r="E130" t="n">
+        <v>31</v>
+      </c>
+      <c r="F130" t="n">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>43938</v>
+      </c>
+      <c r="D131" t="n">
+        <v>33</v>
+      </c>
+      <c r="E131" t="n">
+        <v>34</v>
+      </c>
+      <c r="F131" t="n">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>974</t>
         </is>
       </c>
-      <c r="B129" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C129" s="2" t="n">
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C135" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D135" t="n">
         <v>2</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E135" t="n">
         <v>3</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F135" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8484</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8585</v>
+        <v>8686</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8686</v>
+        <v>8787</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8787</v>
+        <v>8888</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8888</v>
+        <v>8989</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8989</v>
+        <v>9090</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9090</v>
+        <v>9191</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9191</v>
+        <v>9292</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2613,45 +2613,45 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E100" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F100" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D101" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F101" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="102">
@@ -2661,19 +2661,19 @@
         </is>
       </c>
       <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D102" t="n">
         <v>4</v>
       </c>
-      <c r="C102" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D102" t="n">
-        <v>10</v>
-      </c>
       <c r="E102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F102" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="103">
@@ -2686,16 +2686,16 @@
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D103" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="104">
@@ -2705,19 +2705,19 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D104" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E104" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F104" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="105">
@@ -2730,16 +2730,16 @@
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D105" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E105" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F105" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="106">
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D106" t="n">
         <v>14</v>
@@ -2761,7 +2761,7 @@
         <v>13</v>
       </c>
       <c r="F106" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="107">
@@ -2774,7 +2774,7 @@
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D107" t="n">
         <v>13</v>
@@ -2783,51 +2783,51 @@
         <v>14</v>
       </c>
       <c r="F107" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D108" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E108" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F108" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D109" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E109" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F109" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="110">
@@ -2837,19 +2837,19 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D110" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E110" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F110" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="111">
@@ -2862,144 +2862,144 @@
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D111" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E111" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F111" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>3</v>
+      </c>
       <c r="C112" s="2" t="n">
-        <v>43908</v>
+        <v>43923</v>
       </c>
       <c r="D112" t="n">
-        <v>5</v>
-      </c>
-      <c r="E112" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E112" t="n">
+        <v>32</v>
+      </c>
       <c r="F112" t="n">
-        <v>77</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43909</v>
+        <v>43924</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F113" t="n">
-        <v>178</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D114" t="n">
-        <v>35</v>
-      </c>
-      <c r="E114" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D115" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F115" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D116" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E116" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F116" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D117" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E117" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F117" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="118">
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D118" t="n">
         <v>15</v>
@@ -3021,7 +3021,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="119">
@@ -3034,7 +3034,7 @@
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D119" t="n">
         <v>14</v>
@@ -3043,51 +3043,51 @@
         <v>15</v>
       </c>
       <c r="F119" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D120" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E120" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F120" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D121" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E121" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F121" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="122">
@@ -3100,16 +3100,16 @@
         <v>1</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D122" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E122" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F122" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="123">
@@ -3122,104 +3122,104 @@
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D123" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E123" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F123" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D124" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E124" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F124" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D125" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E125" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F125" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D126" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E126" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F126" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D127" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E127" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F127" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="128">
@@ -3229,19 +3229,19 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D128" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E128" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F128" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="129">
@@ -3254,104 +3254,104 @@
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D129" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E129" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F129" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D130" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E130" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F130" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D131" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E131" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F131" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F132" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43961</v>
+        <v>43938</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E133" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F133" t="n">
-        <v>5453</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="134">
@@ -3364,16 +3364,16 @@
         <v>1</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="135">
@@ -3386,15 +3386,59 @@
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C137" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D137" t="n">
         <v>2</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E137" t="n">
         <v>3</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F137" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9292</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,45 +1689,45 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>43910</v>
+        <v>43999</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F58" t="n">
-        <v>238</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>-1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43911</v>
+        <v>44000</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E59" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F59" t="n">
-        <v>339</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="60">
@@ -1740,16 +1740,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43955</v>
+        <v>43910</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>4783</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61">
@@ -1762,60 +1762,60 @@
         <v>-1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43956</v>
+        <v>43911</v>
       </c>
       <c r="D61" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>4884</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43927</v>
+        <v>43955</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F62" t="n">
-        <v>1957</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>43928</v>
+        <v>43956</v>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F63" t="n">
-        <v>2058</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="64">
@@ -1825,19 +1825,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="D64" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>5492</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="65">
@@ -1850,60 +1850,60 @@
         <v>-1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
-        <v>5593</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43909</v>
+        <v>43962</v>
       </c>
       <c r="D66" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F66" t="n">
-        <v>146</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>-1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43910</v>
+        <v>43963</v>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F67" t="n">
-        <v>247</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="68">
@@ -1913,19 +1913,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D68" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69">
@@ -1938,104 +1938,104 @@
         <v>-1</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D69" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F69" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F70" t="n">
-        <v>3682</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D71" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F71" t="n">
-        <v>3783</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43912</v>
+        <v>43944</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
-        <v>452</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43913</v>
+        <v>43945</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>553</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="74">
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75">
@@ -2070,104 +2070,104 @@
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43920</v>
+        <v>43925</v>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>1264</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43921</v>
+        <v>43926</v>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F77" t="n">
-        <v>1365</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D78" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="80">
@@ -2177,19 +2177,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D80" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="81">
@@ -2202,16 +2202,16 @@
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E81" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F81" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82">
@@ -2221,19 +2221,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D82" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="83">
@@ -2246,16 +2246,16 @@
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D83" t="n">
+        <v>12</v>
+      </c>
+      <c r="E83" t="n">
         <v>13</v>
       </c>
-      <c r="E83" t="n">
-        <v>14</v>
-      </c>
       <c r="F83" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="84">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D84" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E84" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F84" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="85">
@@ -2290,29 +2290,29 @@
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D85" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E85" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F85" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D86" t="n">
         <v>18</v>
@@ -2321,20 +2321,20 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D87" t="n">
         <v>17</v>
@@ -2343,139 +2343,139 @@
         <v>18</v>
       </c>
       <c r="F87" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D88" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D89" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E89" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F89" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D90" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E90" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D91" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E91" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F91" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F92" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F93" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="94">
@@ -2485,19 +2485,19 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D94" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95">
@@ -2510,192 +2510,192 @@
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43979</v>
+        <v>43929</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F96" t="n">
-        <v>7237</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43980</v>
+        <v>43930</v>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>7338</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43927</v>
+        <v>43979</v>
       </c>
       <c r="D98" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E98" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>1988</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43928</v>
+        <v>43980</v>
       </c>
       <c r="D99" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>2089</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D100" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E100" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F100" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D101" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E101" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F101" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D102" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E102" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F102" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E103" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F103" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="104">
@@ -2705,19 +2705,19 @@
         </is>
       </c>
       <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D104" t="n">
         <v>4</v>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D104" t="n">
-        <v>10</v>
-      </c>
       <c r="E104" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F104" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="105">
@@ -2730,16 +2730,16 @@
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D105" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F105" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="106">
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D106" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E106" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F106" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="107">
@@ -2774,16 +2774,16 @@
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D107" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F107" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="108">
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D108" t="n">
         <v>14</v>
@@ -2805,7 +2805,7 @@
         <v>13</v>
       </c>
       <c r="F108" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="109">
@@ -2818,7 +2818,7 @@
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D109" t="n">
         <v>13</v>
@@ -2827,51 +2827,51 @@
         <v>14</v>
       </c>
       <c r="F109" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D110" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E110" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F110" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D111" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E111" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F111" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="112">
@@ -2881,19 +2881,19 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D112" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E112" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F112" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="113">
@@ -2906,144 +2906,144 @@
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D113" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E113" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F113" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3</v>
+      </c>
       <c r="C114" s="2" t="n">
-        <v>43908</v>
+        <v>43923</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
-      </c>
-      <c r="E114" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E114" t="n">
+        <v>32</v>
+      </c>
       <c r="F114" t="n">
-        <v>77</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43909</v>
+        <v>43924</v>
       </c>
       <c r="D115" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F115" t="n">
-        <v>178</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D116" t="n">
-        <v>35</v>
-      </c>
-      <c r="E116" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D117" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D118" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E118" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F118" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D119" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E119" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F119" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="120">
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D120" t="n">
         <v>15</v>
@@ -3065,7 +3065,7 @@
         <v>14</v>
       </c>
       <c r="F120" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="121">
@@ -3078,7 +3078,7 @@
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D121" t="n">
         <v>14</v>
@@ -3087,51 +3087,51 @@
         <v>15</v>
       </c>
       <c r="F121" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>1</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D122" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E122" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F122" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D123" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E123" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F123" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="124">
@@ -3144,16 +3144,16 @@
         <v>1</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D124" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E124" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F124" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="125">
@@ -3166,104 +3166,104 @@
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D125" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E125" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F125" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D126" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E126" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F126" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D127" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E127" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F127" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D128" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F128" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D129" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E129" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F129" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="130">
@@ -3273,19 +3273,19 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D130" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E130" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F130" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="131">
@@ -3298,104 +3298,104 @@
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D131" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F131" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D132" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E132" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F132" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D133" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E133" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D134" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F134" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43961</v>
+        <v>43938</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F135" t="n">
-        <v>5453</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="136">
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="137">
@@ -3430,15 +3430,59 @@
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D138" t="n">
+        <v>3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C139" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D139" t="n">
         <v>2</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E139" t="n">
         <v>3</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F139" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9393</v>
+        <v>9494</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,129 +2965,129 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
       <c r="C116" s="2" t="n">
-        <v>43908</v>
+        <v>44000</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
-      </c>
-      <c r="E116" t="inlineStr"/>
+        <v>53</v>
+      </c>
+      <c r="E116" t="n">
+        <v>53</v>
+      </c>
       <c r="F116" t="n">
-        <v>77</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43909</v>
+        <v>44001</v>
       </c>
       <c r="D117" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F117" t="n">
-        <v>178</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D118" t="n">
-        <v>35</v>
-      </c>
-      <c r="E118" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D119" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E119" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F119" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D120" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E120" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F120" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D121" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E121" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F121" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="122">
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D122" t="n">
         <v>15</v>
@@ -3109,7 +3109,7 @@
         <v>14</v>
       </c>
       <c r="F122" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="123">
@@ -3122,7 +3122,7 @@
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D123" t="n">
         <v>14</v>
@@ -3131,51 +3131,51 @@
         <v>15</v>
       </c>
       <c r="F123" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D124" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E124" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F124" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D125" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E125" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F125" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="126">
@@ -3188,16 +3188,16 @@
         <v>1</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D126" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E126" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F126" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="127">
@@ -3210,104 +3210,104 @@
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D127" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E127" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F127" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D128" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E128" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F128" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D129" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E129" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F129" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F130" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D131" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E131" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F131" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="132">
@@ -3317,19 +3317,19 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D132" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E132" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F132" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="133">
@@ -3342,104 +3342,104 @@
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D133" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E133" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F133" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D134" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E134" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F134" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D135" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E135" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F136" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43961</v>
+        <v>43938</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F137" t="n">
-        <v>5453</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="138">
@@ -3452,16 +3452,16 @@
         <v>1</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="139">
@@ -3474,15 +3474,59 @@
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D140" t="n">
+        <v>3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C141" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D141" t="n">
         <v>2</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E141" t="n">
         <v>3</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F141" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9494</v>
+        <v>9595</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9595</v>
+        <v>9696</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9696</v>
+        <v>9797</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9797</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9898</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9999</v>
+        <v>10100</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10100</v>
+        <v>10201</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10201</v>
+        <v>10504</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10504</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10605</v>
+        <v>10706</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10706</v>
+        <v>10807</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10807</v>
+        <v>10908</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10908</v>
+        <v>11312</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11312</v>
+        <v>11413</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11413</v>
+        <v>11514</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11514</v>
+        <v>11615</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11615</v>
+        <v>11716</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11716</v>
+        <v>11918</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11918</v>
+        <v>12019</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12019</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12221</v>
+        <v>12322</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12322</v>
+        <v>12524</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12524</v>
+        <v>12726</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12726</v>
+        <v>12827</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2129,89 +2129,89 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43920</v>
+        <v>44033</v>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F78" t="n">
-        <v>1264</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43921</v>
+        <v>44034</v>
       </c>
       <c r="D79" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F79" t="n">
-        <v>1365</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E80" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E81" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="82">
@@ -2221,19 +2221,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D82" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="83">
@@ -2246,16 +2246,16 @@
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D83" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="84">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D84" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="85">
@@ -2290,16 +2290,16 @@
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D85" t="n">
+        <v>12</v>
+      </c>
+      <c r="E85" t="n">
         <v>13</v>
       </c>
-      <c r="E85" t="n">
-        <v>14</v>
-      </c>
       <c r="F85" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="86">
@@ -2309,19 +2309,19 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E86" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F86" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="87">
@@ -2334,29 +2334,29 @@
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D87" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E87" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F87" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D88" t="n">
         <v>18</v>
@@ -2365,20 +2365,20 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D89" t="n">
         <v>17</v>
@@ -2387,139 +2387,139 @@
         <v>18</v>
       </c>
       <c r="F89" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D90" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D91" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E91" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F91" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D92" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E92" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F93" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F94" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F95" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="96">
@@ -2529,19 +2529,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97">
@@ -2554,192 +2554,192 @@
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43979</v>
+        <v>43929</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F98" t="n">
-        <v>7237</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43980</v>
+        <v>43930</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>7338</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43927</v>
+        <v>43979</v>
       </c>
       <c r="D100" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E100" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>1988</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43928</v>
+        <v>43980</v>
       </c>
       <c r="D101" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>2089</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D102" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E102" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F102" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D103" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E103" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F103" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E104" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F104" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F105" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="106">
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D106" t="n">
         <v>4</v>
       </c>
-      <c r="C106" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D106" t="n">
-        <v>10</v>
-      </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="107">
@@ -2774,16 +2774,16 @@
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D107" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="108">
@@ -2793,19 +2793,19 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D108" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E108" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="109">
@@ -2818,16 +2818,16 @@
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D109" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E109" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F109" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="110">
@@ -2840,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D110" t="n">
         <v>14</v>
@@ -2849,7 +2849,7 @@
         <v>13</v>
       </c>
       <c r="F110" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="111">
@@ -2862,7 +2862,7 @@
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D111" t="n">
         <v>13</v>
@@ -2871,51 +2871,51 @@
         <v>14</v>
       </c>
       <c r="F111" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D112" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E112" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F112" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D113" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E113" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F113" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="114">
@@ -2925,19 +2925,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D114" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E114" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F114" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="115">
@@ -2950,16 +2950,16 @@
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D115" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E115" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F115" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="116">
@@ -2969,19 +2969,19 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D116" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E116" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F116" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="117">
@@ -2994,144 +2994,144 @@
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D117" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E117" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F117" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
       <c r="C118" s="2" t="n">
-        <v>43908</v>
+        <v>44000</v>
       </c>
       <c r="D118" t="n">
-        <v>5</v>
-      </c>
-      <c r="E118" t="inlineStr"/>
+        <v>53</v>
+      </c>
+      <c r="E118" t="n">
+        <v>53</v>
+      </c>
       <c r="F118" t="n">
-        <v>77</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43909</v>
+        <v>44001</v>
       </c>
       <c r="D119" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E119" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F119" t="n">
-        <v>178</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D120" t="n">
-        <v>35</v>
-      </c>
-      <c r="E120" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E120" t="inlineStr"/>
       <c r="F120" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D121" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F121" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D122" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E122" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F122" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D123" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E123" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F123" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="124">
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D124" t="n">
         <v>15</v>
@@ -3153,7 +3153,7 @@
         <v>14</v>
       </c>
       <c r="F124" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="125">
@@ -3166,7 +3166,7 @@
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D125" t="n">
         <v>14</v>
@@ -3175,51 +3175,51 @@
         <v>15</v>
       </c>
       <c r="F125" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>1</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D126" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E126" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F126" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D127" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E127" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F127" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="128">
@@ -3232,16 +3232,16 @@
         <v>1</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D128" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E128" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F128" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="129">
@@ -3254,104 +3254,104 @@
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D129" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E129" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F129" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D130" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E130" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F130" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D131" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E131" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F131" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D132" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F132" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E133" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F133" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="134">
@@ -3361,19 +3361,19 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D134" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E134" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F134" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="135">
@@ -3386,104 +3386,104 @@
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D135" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E135" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F135" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D136" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E136" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F136" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D137" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E137" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E138" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F138" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43961</v>
+        <v>43938</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E139" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F139" t="n">
-        <v>5453</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="140">
@@ -3496,16 +3496,16 @@
         <v>1</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="141">
@@ -3518,15 +3518,59 @@
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C143" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D143" t="n">
         <v>2</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E143" t="n">
         <v>3</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F143" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12827</v>
+        <v>12928</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12928</v>
+        <v>13029</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13029</v>
+        <v>13332</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,89 +1293,89 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>43913</v>
+        <v>44036</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>526</v>
+        <v>12946</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>-1</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>43914</v>
+        <v>44037</v>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>627</v>
+        <v>13047</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>932</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>-1</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>1033</v>
+        <v>627</v>
       </c>
     </row>
     <row r="44">
@@ -1385,19 +1385,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="D44" t="n">
         <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>1235</v>
+        <v>932</v>
       </c>
     </row>
     <row r="45">
@@ -1410,7 +1410,7 @@
         <v>-1</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1419,95 +1419,95 @@
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>1336</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>43937</v>
+        <v>43920</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>2955</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>-1</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>43938</v>
+        <v>43921</v>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>3056</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43925</v>
+        <v>43937</v>
       </c>
       <c r="D48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>1745</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>-1</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43926</v>
+        <v>43938</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>1846</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="50">
@@ -1517,19 +1517,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43976</v>
+        <v>43925</v>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F50" t="n">
-        <v>6896</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="51">
@@ -1542,60 +1542,60 @@
         <v>-1</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43977</v>
+        <v>43926</v>
       </c>
       <c r="D51" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>6997</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>43917</v>
+        <v>43976</v>
       </c>
       <c r="D52" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" t="n">
-        <v>943</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>-1</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>43918</v>
+        <v>43977</v>
       </c>
       <c r="D53" t="n">
+        <v>13</v>
+      </c>
+      <c r="E53" t="n">
         <v>14</v>
       </c>
-      <c r="E53" t="n">
-        <v>15</v>
-      </c>
       <c r="F53" t="n">
-        <v>1044</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="54">
@@ -1605,19 +1605,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F54" t="n">
-        <v>1549</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55">
@@ -1630,60 +1630,60 @@
         <v>-1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D55" t="n">
+        <v>14</v>
+      </c>
+      <c r="E55" t="n">
         <v>15</v>
       </c>
-      <c r="E55" t="n">
-        <v>16</v>
-      </c>
       <c r="F55" t="n">
-        <v>1650</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>43909</v>
+        <v>43923</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F56" t="n">
-        <v>136</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>-1</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>43910</v>
+        <v>43924</v>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F57" t="n">
-        <v>237</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="58">
@@ -1693,19 +1693,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>43999</v>
+        <v>43909</v>
       </c>
       <c r="D58" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>9226</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -1718,60 +1718,60 @@
         <v>-1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>44000</v>
+        <v>43910</v>
       </c>
       <c r="D59" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E59" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F59" t="n">
-        <v>9327</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43910</v>
+        <v>43999</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F60" t="n">
-        <v>238</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>-1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43911</v>
+        <v>44000</v>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F61" t="n">
-        <v>339</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="62">
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43955</v>
+        <v>43910</v>
       </c>
       <c r="D62" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>4783</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63">
@@ -1806,60 +1806,60 @@
         <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>43956</v>
+        <v>43911</v>
       </c>
       <c r="D63" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>4884</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43927</v>
+        <v>43955</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E64" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F64" t="n">
-        <v>1957</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>-1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>43928</v>
+        <v>43956</v>
       </c>
       <c r="D65" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F65" t="n">
-        <v>2058</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="66">
@@ -1869,19 +1869,19 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="D66" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>5492</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="67">
@@ -1894,60 +1894,60 @@
         <v>-1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="D67" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E67" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F67" t="n">
-        <v>5593</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43909</v>
+        <v>43962</v>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E68" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F68" t="n">
-        <v>146</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>-1</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43910</v>
+        <v>43963</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F69" t="n">
-        <v>247</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="70">
@@ -1957,19 +1957,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D70" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71">
@@ -1982,104 +1982,104 @@
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D71" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F71" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F72" t="n">
-        <v>3682</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D73" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F73" t="n">
-        <v>3783</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43912</v>
+        <v>43944</v>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
-        <v>452</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43913</v>
+        <v>43945</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E75" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F75" t="n">
-        <v>553</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="76">
@@ -2089,19 +2089,19 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77">
@@ -2114,192 +2114,192 @@
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>44033</v>
+        <v>43925</v>
       </c>
       <c r="D78" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>12675</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>44034</v>
+        <v>43926</v>
       </c>
       <c r="D79" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F79" t="n">
-        <v>12776</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43920</v>
+        <v>44033</v>
       </c>
       <c r="D80" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F80" t="n">
-        <v>1264</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43921</v>
+        <v>44034</v>
       </c>
       <c r="D81" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E81" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F81" t="n">
-        <v>1365</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43914</v>
+        <v>44038</v>
       </c>
       <c r="D82" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E82" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>661</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43915</v>
+        <v>44039</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E83" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>762</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="D84" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>1065</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43919</v>
+        <v>43921</v>
       </c>
       <c r="D85" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>1166</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="86">
@@ -2309,19 +2309,19 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43924</v>
+        <v>43914</v>
       </c>
       <c r="D86" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E86" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>1671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="87">
@@ -2334,16 +2334,16 @@
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43925</v>
+        <v>43915</v>
       </c>
       <c r="D87" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E87" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>1772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="88">
@@ -2353,19 +2353,19 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D88" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F88" t="n">
-        <v>2378</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="89">
@@ -2378,176 +2378,176 @@
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43932</v>
+        <v>43919</v>
       </c>
       <c r="D89" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F89" t="n">
-        <v>2479</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43915</v>
+        <v>43924</v>
       </c>
       <c r="D90" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E90" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F90" t="n">
-        <v>767</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43916</v>
+        <v>43925</v>
       </c>
       <c r="D91" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E91" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F91" t="n">
-        <v>868</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43910</v>
+        <v>43931</v>
       </c>
       <c r="D92" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>265</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43911</v>
+        <v>43932</v>
       </c>
       <c r="D93" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E93" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F93" t="n">
-        <v>366</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43943</v>
+        <v>43915</v>
       </c>
       <c r="D94" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>3599</v>
+        <v>767</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43944</v>
+        <v>43916</v>
       </c>
       <c r="D95" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E95" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F95" t="n">
-        <v>3700</v>
+        <v>868</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>43910</v>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2557,277 +2557,277 @@
         <v>43911</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F97" t="n">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43929</v>
+        <v>43943</v>
       </c>
       <c r="D98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E98" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F98" t="n">
-        <v>2186</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43930</v>
+        <v>43944</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F99" t="n">
-        <v>2287</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43979</v>
+        <v>43910</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>7237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43980</v>
+        <v>43911</v>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>7338</v>
+        <v>368</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43927</v>
+        <v>43929</v>
       </c>
       <c r="D102" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E102" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F102" t="n">
-        <v>1988</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43928</v>
+        <v>43930</v>
       </c>
       <c r="D103" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>2089</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43998</v>
+        <v>43979</v>
       </c>
       <c r="D104" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E104" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>9160</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43999</v>
+        <v>43980</v>
       </c>
       <c r="D105" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E105" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F105" t="n">
-        <v>9261</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43917</v>
+        <v>43927</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F106" t="n">
-        <v>982</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43918</v>
+        <v>43928</v>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F107" t="n">
-        <v>1083</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43930</v>
+        <v>43998</v>
       </c>
       <c r="D108" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F108" t="n">
-        <v>2295</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43931</v>
+        <v>43999</v>
       </c>
       <c r="D109" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E109" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F109" t="n">
-        <v>2396</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="110">
@@ -2837,19 +2837,19 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43945</v>
+        <v>43917</v>
       </c>
       <c r="D110" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F110" t="n">
-        <v>3810</v>
+        <v>982</v>
       </c>
     </row>
     <row r="111">
@@ -2862,16 +2862,16 @@
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43946</v>
+        <v>43918</v>
       </c>
       <c r="D111" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E111" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F111" t="n">
-        <v>3911</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="112">
@@ -2881,19 +2881,19 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43948</v>
+        <v>43930</v>
       </c>
       <c r="D112" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E112" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F112" t="n">
-        <v>4113</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="113">
@@ -2906,104 +2906,104 @@
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43949</v>
+        <v>43931</v>
       </c>
       <c r="D113" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E113" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F113" t="n">
-        <v>4214</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43920</v>
+        <v>43945</v>
       </c>
       <c r="D114" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E114" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F114" t="n">
-        <v>1288</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43921</v>
+        <v>43946</v>
       </c>
       <c r="D115" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E115" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F115" t="n">
-        <v>1389</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43923</v>
+        <v>43948</v>
       </c>
       <c r="D116" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E116" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F116" t="n">
-        <v>1591</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="D117" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E117" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F117" t="n">
-        <v>1692</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="118">
@@ -3013,19 +3013,19 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>44000</v>
+        <v>43920</v>
       </c>
       <c r="D118" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E118" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F118" t="n">
-        <v>9368</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="119">
@@ -3038,539 +3038,627 @@
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>44001</v>
+        <v>43921</v>
       </c>
       <c r="D119" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="E119" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F119" t="n">
-        <v>9469</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
       <c r="C120" s="2" t="n">
-        <v>43908</v>
+        <v>43923</v>
       </c>
       <c r="D120" t="n">
-        <v>5</v>
-      </c>
-      <c r="E120" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E120" t="n">
+        <v>32</v>
+      </c>
       <c r="F120" t="n">
-        <v>77</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43909</v>
+        <v>43924</v>
       </c>
       <c r="D121" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E121" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F121" t="n">
-        <v>178</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43938</v>
+        <v>44000</v>
       </c>
       <c r="D122" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E122" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F122" t="n">
-        <v>3109</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43939</v>
+        <v>44001</v>
       </c>
       <c r="D123" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E123" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F123" t="n">
-        <v>3210</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>1</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" s="2" t="n">
-        <v>43924</v>
+        <v>43908</v>
       </c>
       <c r="D124" t="n">
-        <v>15</v>
-      </c>
-      <c r="E124" t="n">
-        <v>14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
-        <v>1697</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43925</v>
+        <v>43909</v>
       </c>
       <c r="D125" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F125" t="n">
-        <v>1798</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43930</v>
+        <v>43938</v>
       </c>
       <c r="D126" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E126" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F126" t="n">
-        <v>2303</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43931</v>
+        <v>43939</v>
       </c>
       <c r="D127" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E127" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F127" t="n">
-        <v>2404</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43945</v>
+        <v>43924</v>
       </c>
       <c r="D128" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E128" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F128" t="n">
-        <v>3821</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43946</v>
+        <v>43925</v>
       </c>
       <c r="D129" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E129" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F129" t="n">
-        <v>3922</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43990</v>
+        <v>43930</v>
       </c>
       <c r="D130" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E130" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F130" t="n">
-        <v>8366</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43991</v>
+        <v>43931</v>
       </c>
       <c r="D131" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E131" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F131" t="n">
-        <v>8467</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43942</v>
+        <v>43945</v>
       </c>
       <c r="D132" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E132" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F132" t="n">
-        <v>3519</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43943</v>
+        <v>43946</v>
       </c>
       <c r="D133" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E133" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F133" t="n">
-        <v>3620</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43923</v>
+        <v>43990</v>
       </c>
       <c r="D134" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E134" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F134" t="n">
-        <v>1605</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43924</v>
+        <v>43991</v>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E135" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F135" t="n">
-        <v>1706</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="D136" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E136" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F136" t="n">
-        <v>3625</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="D137" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E137" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F137" t="n">
-        <v>3726</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>3</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43937</v>
+        <v>43923</v>
       </c>
       <c r="D138" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="E138" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F138" t="n">
-        <v>3023</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43938</v>
+        <v>43924</v>
       </c>
       <c r="D139" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F139" t="n">
-        <v>3124</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43960</v>
+        <v>43943</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F140" t="n">
-        <v>5352</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43961</v>
+        <v>43944</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>5453</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43975</v>
+        <v>43937</v>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F142" t="n">
-        <v>6867</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>43938</v>
+      </c>
+      <c r="D143" t="n">
+        <v>33</v>
+      </c>
+      <c r="E143" t="n">
+        <v>34</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>974</t>
         </is>
       </c>
-      <c r="B143" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C143" s="2" t="n">
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>43960</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D146" t="n">
+        <v>3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2</v>
+      </c>
+      <c r="F146" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C147" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D147" t="n">
         <v>2</v>
       </c>
-      <c r="E143" t="n">
+      <c r="E147" t="n">
         <v>3</v>
       </c>
-      <c r="F143" t="n">
+      <c r="F147" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13332</v>
+        <v>13433</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13433</v>
+        <v>13534</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2745,133 +2745,133 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43927</v>
+        <v>44040</v>
       </c>
       <c r="D106" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E106" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>1988</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43928</v>
+        <v>44041</v>
       </c>
       <c r="D107" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F107" t="n">
-        <v>2089</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D108" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E108" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F108" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D109" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E109" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F109" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D110" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E110" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F110" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F111" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="112">
@@ -2881,19 +2881,19 @@
         </is>
       </c>
       <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D112" t="n">
         <v>4</v>
       </c>
-      <c r="C112" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D112" t="n">
-        <v>10</v>
-      </c>
       <c r="E112" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F112" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="113">
@@ -2906,16 +2906,16 @@
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D113" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F113" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="114">
@@ -2925,19 +2925,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D114" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E114" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F114" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="115">
@@ -2950,16 +2950,16 @@
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D115" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E115" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F115" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="116">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D116" t="n">
         <v>14</v>
@@ -2981,7 +2981,7 @@
         <v>13</v>
       </c>
       <c r="F116" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="117">
@@ -2994,7 +2994,7 @@
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D117" t="n">
         <v>13</v>
@@ -3003,51 +3003,51 @@
         <v>14</v>
       </c>
       <c r="F117" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D118" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E118" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F118" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D119" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E119" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F119" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="120">
@@ -3057,19 +3057,19 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D120" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E120" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F120" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="121">
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D121" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E121" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F121" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="122">
@@ -3101,19 +3101,19 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D122" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E122" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F122" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="123">
@@ -3126,144 +3126,144 @@
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D123" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E123" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F123" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
       <c r="C124" s="2" t="n">
-        <v>43908</v>
+        <v>44000</v>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
-      </c>
-      <c r="E124" t="inlineStr"/>
+        <v>53</v>
+      </c>
+      <c r="E124" t="n">
+        <v>53</v>
+      </c>
       <c r="F124" t="n">
-        <v>77</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43909</v>
+        <v>44001</v>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="E125" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="F125" t="n">
-        <v>178</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D126" t="n">
-        <v>35</v>
-      </c>
-      <c r="E126" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D127" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F127" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D128" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E128" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F128" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D129" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E129" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F129" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="130">
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D130" t="n">
         <v>15</v>
@@ -3285,7 +3285,7 @@
         <v>14</v>
       </c>
       <c r="F130" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="131">
@@ -3298,7 +3298,7 @@
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D131" t="n">
         <v>14</v>
@@ -3307,51 +3307,51 @@
         <v>15</v>
       </c>
       <c r="F131" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D132" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F132" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D133" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E133" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F133" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="134">
@@ -3364,16 +3364,16 @@
         <v>1</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E134" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F134" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="135">
@@ -3386,104 +3386,104 @@
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D135" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E135" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F135" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D136" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E136" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F136" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D137" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E137" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F137" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D138" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E138" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F138" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D139" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E139" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F139" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="140">
@@ -3493,19 +3493,19 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D140" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E140" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F140" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="141">
@@ -3518,104 +3518,104 @@
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E141" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F141" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D142" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E142" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F142" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D143" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E143" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F143" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E144" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F144" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43961</v>
+        <v>43938</v>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F145" t="n">
-        <v>5453</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="146">
@@ -3628,16 +3628,16 @@
         <v>1</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="147">
@@ -3650,15 +3650,59 @@
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2</v>
+      </c>
+      <c r="F147" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C149" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D149" t="n">
         <v>2</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E149" t="n">
         <v>3</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F149" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13534</v>
+        <v>13635</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13635</v>
+        <v>13736</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13736</v>
+        <v>14039</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3185,129 +3185,129 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
       <c r="C126" s="2" t="n">
-        <v>43908</v>
+        <v>44045</v>
       </c>
       <c r="D126" t="n">
-        <v>5</v>
-      </c>
-      <c r="E126" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="E126" t="n">
+        <v>54</v>
+      </c>
       <c r="F126" t="n">
-        <v>77</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43909</v>
+        <v>44046</v>
       </c>
       <c r="D127" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E127" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F127" t="n">
-        <v>178</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D128" t="n">
-        <v>35</v>
-      </c>
-      <c r="E128" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D129" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F129" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D130" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E130" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F130" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D131" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E131" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F131" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="132">
@@ -3320,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D132" t="n">
         <v>15</v>
@@ -3329,7 +3329,7 @@
         <v>14</v>
       </c>
       <c r="F132" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="133">
@@ -3342,7 +3342,7 @@
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D133" t="n">
         <v>14</v>
@@ -3351,51 +3351,51 @@
         <v>15</v>
       </c>
       <c r="F133" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>1</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D134" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E134" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F134" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D135" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E135" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F135" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="136">
@@ -3408,16 +3408,16 @@
         <v>1</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D136" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E136" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F136" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="137">
@@ -3430,104 +3430,104 @@
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D137" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E137" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F137" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D138" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E138" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F138" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D139" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E139" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F139" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D140" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F140" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D141" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E141" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F141" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="142">
@@ -3537,19 +3537,19 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D142" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E142" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F142" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="143">
@@ -3562,104 +3562,104 @@
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D143" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E143" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F143" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D144" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E144" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F144" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D145" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E145" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F145" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43960</v>
+        <v>43937</v>
       </c>
       <c r="D146" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="F146" t="n">
-        <v>5352</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43961</v>
+        <v>43938</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F147" t="n">
-        <v>5453</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="148">
@@ -3672,16 +3672,16 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="149">
@@ -3694,15 +3694,59 @@
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C151" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D151" t="n">
         <v>2</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E151" t="n">
         <v>3</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F151" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14039</v>
+        <v>14140</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14140</v>
+        <v>14241</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14241</v>
+        <v>14342</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3665,36 +3665,36 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D149" t="n">
         <v>1</v>
@@ -3703,7 +3703,7 @@
         <v>2</v>
       </c>
       <c r="F149" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="150">
@@ -3716,16 +3716,16 @@
         <v>1</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="151">
@@ -3738,15 +3738,59 @@
         <v>-1</v>
       </c>
       <c r="C151" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D152" t="n">
+        <v>3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C153" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D153" t="n">
         <v>2</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E153" t="n">
         <v>3</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F153" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14342</v>
+        <v>14443</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14443</v>
+        <v>14746</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14746</v>
+        <v>14847</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14847</v>
+        <v>14948</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,102 +1205,102 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>43929</v>
+        <v>44054</v>
       </c>
       <c r="D36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
-        <v>2137</v>
+        <v>14761</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>-1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>43930</v>
+        <v>44055</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
-        <v>2238</v>
+        <v>14862</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2037</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>-1</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>2138</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44036</v>
+        <v>43928</v>
       </c>
       <c r="D40" t="n">
         <v>6</v>
@@ -1309,20 +1309,20 @@
         <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>12946</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>-1</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44037</v>
+        <v>43929</v>
       </c>
       <c r="D41" t="n">
         <v>5</v>
@@ -1331,95 +1331,95 @@
         <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>13047</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>43913</v>
+        <v>44036</v>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>526</v>
+        <v>12946</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>-1</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>43914</v>
+        <v>44037</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F43" t="n">
-        <v>627</v>
+        <v>13047</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>932</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>-1</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>1033</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46">
@@ -1429,19 +1429,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>1235</v>
+        <v>932</v>
       </c>
     </row>
     <row r="47">
@@ -1454,7 +1454,7 @@
         <v>-1</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -1463,95 +1463,95 @@
         <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>1336</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43937</v>
+        <v>43920</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>2955</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>-1</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43938</v>
+        <v>43921</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>3056</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43925</v>
+        <v>43937</v>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F50" t="n">
-        <v>1745</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>-1</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43926</v>
+        <v>43938</v>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>1846</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="52">
@@ -1561,19 +1561,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>43976</v>
+        <v>43925</v>
       </c>
       <c r="D52" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E52" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F52" t="n">
-        <v>6896</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="53">
@@ -1586,60 +1586,60 @@
         <v>-1</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>43977</v>
+        <v>43926</v>
       </c>
       <c r="D53" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>6997</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>43917</v>
+        <v>43976</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>943</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>-1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43918</v>
+        <v>43977</v>
       </c>
       <c r="D55" t="n">
+        <v>13</v>
+      </c>
+      <c r="E55" t="n">
         <v>14</v>
       </c>
-      <c r="E55" t="n">
-        <v>15</v>
-      </c>
       <c r="F55" t="n">
-        <v>1044</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="56">
@@ -1649,19 +1649,19 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="D56" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F56" t="n">
-        <v>1549</v>
+        <v>943</v>
       </c>
     </row>
     <row r="57">
@@ -1674,60 +1674,60 @@
         <v>-1</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D57" t="n">
+        <v>14</v>
+      </c>
+      <c r="E57" t="n">
         <v>15</v>
       </c>
-      <c r="E57" t="n">
-        <v>16</v>
-      </c>
       <c r="F57" t="n">
-        <v>1650</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>43909</v>
+        <v>43923</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>136</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>-1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43910</v>
+        <v>43924</v>
       </c>
       <c r="D59" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F59" t="n">
-        <v>237</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="60">
@@ -1737,19 +1737,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43999</v>
+        <v>43909</v>
       </c>
       <c r="D60" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F60" t="n">
-        <v>9226</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -1762,60 +1762,60 @@
         <v>-1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>44000</v>
+        <v>43910</v>
       </c>
       <c r="D61" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F61" t="n">
-        <v>9327</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43910</v>
+        <v>43999</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E62" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F62" t="n">
-        <v>238</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>43911</v>
+        <v>44000</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F63" t="n">
-        <v>339</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="64">
@@ -1828,16 +1828,16 @@
         <v>0</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43955</v>
+        <v>43910</v>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E64" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>4783</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65">
@@ -1850,60 +1850,60 @@
         <v>-1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>43956</v>
+        <v>43911</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>4884</v>
+        <v>339</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43927</v>
+        <v>43955</v>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E66" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F66" t="n">
-        <v>1957</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>-1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43928</v>
+        <v>43956</v>
       </c>
       <c r="D67" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F67" t="n">
-        <v>2058</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="68">
@@ -1913,19 +1913,19 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="D68" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>5492</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="69">
@@ -1938,60 +1938,60 @@
         <v>-1</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="D69" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E69" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F69" t="n">
-        <v>5593</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43909</v>
+        <v>43962</v>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F70" t="n">
-        <v>146</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43910</v>
+        <v>43963</v>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E71" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F71" t="n">
-        <v>247</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="72">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D72" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -2026,104 +2026,104 @@
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D73" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E73" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="D74" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F74" t="n">
-        <v>3682</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D75" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E75" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F75" t="n">
-        <v>3783</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43912</v>
+        <v>43944</v>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F76" t="n">
-        <v>452</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43913</v>
+        <v>43945</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F77" t="n">
-        <v>553</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="78">
@@ -2133,19 +2133,19 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79">
@@ -2158,192 +2158,192 @@
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>1</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>44033</v>
+        <v>43925</v>
       </c>
       <c r="D80" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>12675</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>44034</v>
+        <v>43926</v>
       </c>
       <c r="D81" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>12776</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>44038</v>
+        <v>44033</v>
       </c>
       <c r="D82" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E82" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F82" t="n">
-        <v>13181</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>44039</v>
+        <v>44034</v>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F83" t="n">
-        <v>13282</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43920</v>
+        <v>44038</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F84" t="n">
-        <v>1264</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43921</v>
+        <v>44039</v>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>1365</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D86" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="88">
@@ -2353,19 +2353,19 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D88" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="89">
@@ -2378,16 +2378,16 @@
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D89" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="90">
@@ -2397,19 +2397,19 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E90" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F90" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="91">
@@ -2422,16 +2422,16 @@
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D91" t="n">
+        <v>12</v>
+      </c>
+      <c r="E91" t="n">
         <v>13</v>
       </c>
-      <c r="E91" t="n">
-        <v>14</v>
-      </c>
       <c r="F91" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="92">
@@ -2441,19 +2441,19 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D92" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E92" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F92" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="93">
@@ -2466,29 +2466,29 @@
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D93" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E93" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F93" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D94" t="n">
         <v>18</v>
@@ -2497,20 +2497,20 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D95" t="n">
         <v>17</v>
@@ -2519,139 +2519,139 @@
         <v>18</v>
       </c>
       <c r="F95" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D96" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D97" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E97" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F97" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D98" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E98" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F99" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E100" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F100" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F101" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="102">
@@ -2661,19 +2661,19 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D102" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E102" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="103">
@@ -2686,236 +2686,236 @@
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D103" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43979</v>
+        <v>43929</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F104" t="n">
-        <v>7237</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43980</v>
+        <v>43930</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E105" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>7338</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>44040</v>
+        <v>43979</v>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F106" t="n">
-        <v>13399</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>44041</v>
+        <v>43980</v>
       </c>
       <c r="D107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>13500</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43927</v>
+        <v>44040</v>
       </c>
       <c r="D108" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>1988</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43928</v>
+        <v>44041</v>
       </c>
       <c r="D109" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F109" t="n">
-        <v>2089</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D110" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E110" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F110" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D111" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E111" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F111" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E112" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F112" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F113" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="114">
@@ -2925,19 +2925,19 @@
         </is>
       </c>
       <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D114" t="n">
         <v>4</v>
       </c>
-      <c r="C114" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D114" t="n">
-        <v>10</v>
-      </c>
       <c r="E114" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F114" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="115">
@@ -2950,16 +2950,16 @@
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D115" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="116">
@@ -2969,19 +2969,19 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D116" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E116" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F116" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="117">
@@ -2994,16 +2994,16 @@
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D117" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E117" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F117" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="118">
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D118" t="n">
         <v>14</v>
@@ -3025,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="F118" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="119">
@@ -3038,7 +3038,7 @@
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D119" t="n">
         <v>13</v>
@@ -3047,51 +3047,51 @@
         <v>14</v>
       </c>
       <c r="F119" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D120" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E120" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F120" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D121" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E121" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F121" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="122">
@@ -3101,19 +3101,19 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D122" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E122" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F122" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="123">
@@ -3126,16 +3126,16 @@
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D123" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E123" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F123" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="124">
@@ -3145,19 +3145,19 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D124" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E124" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F124" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="125">
@@ -3170,16 +3170,16 @@
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D125" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E125" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F125" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="126">
@@ -3192,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>44045</v>
+        <v>44000</v>
       </c>
       <c r="D126" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E126" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F126" t="n">
-        <v>13913</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="127">
@@ -3214,144 +3214,144 @@
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>44046</v>
+        <v>44001</v>
       </c>
       <c r="D127" t="n">
+        <v>52</v>
+      </c>
+      <c r="E127" t="n">
         <v>53</v>
       </c>
-      <c r="E127" t="n">
-        <v>54</v>
-      </c>
       <c r="F127" t="n">
-        <v>14014</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
       <c r="C128" s="2" t="n">
-        <v>43908</v>
+        <v>44045</v>
       </c>
       <c r="D128" t="n">
-        <v>5</v>
-      </c>
-      <c r="E128" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="E128" t="n">
+        <v>54</v>
+      </c>
       <c r="F128" t="n">
-        <v>77</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43909</v>
+        <v>44046</v>
       </c>
       <c r="D129" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E129" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F129" t="n">
-        <v>178</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D130" t="n">
-        <v>35</v>
-      </c>
-      <c r="E130" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D131" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F131" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D132" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E132" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F132" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D133" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E133" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F133" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="134">
@@ -3364,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D134" t="n">
         <v>15</v>
@@ -3373,7 +3373,7 @@
         <v>14</v>
       </c>
       <c r="F134" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="135">
@@ -3386,7 +3386,7 @@
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D135" t="n">
         <v>14</v>
@@ -3395,51 +3395,51 @@
         <v>15</v>
       </c>
       <c r="F135" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>1</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D136" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E136" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F136" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D137" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E137" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F137" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="138">
@@ -3452,16 +3452,16 @@
         <v>1</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D138" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E138" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F138" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="139">
@@ -3474,104 +3474,104 @@
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D139" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E139" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F139" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D140" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E140" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F140" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D141" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E141" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F141" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E142" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F142" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D143" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E143" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F143" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="144">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D144" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E144" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="145">
@@ -3606,139 +3606,139 @@
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D145" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E145" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F145" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D146" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E146" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F146" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D147" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E147" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F147" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F148" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F149" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D150" t="n">
         <v>2</v>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F150" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>-1</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="F151" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="152">
@@ -3760,16 +3760,16 @@
         <v>1</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="153">
@@ -3782,15 +3782,59 @@
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2</v>
+      </c>
+      <c r="F153" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C155" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D155" t="n">
         <v>2</v>
       </c>
-      <c r="E153" t="n">
+      <c r="E155" t="n">
         <v>3</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F155" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14948</v>
+        <v>15049</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15049</v>
+        <v>15150</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1997,45 +1997,45 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43909</v>
+        <v>44056</v>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E72" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F72" t="n">
-        <v>146</v>
+        <v>14986</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43910</v>
+        <v>44057</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F73" t="n">
-        <v>247</v>
+        <v>15087</v>
       </c>
     </row>
     <row r="74">
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -2070,104 +2070,104 @@
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D75" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E75" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F75" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F76" t="n">
-        <v>3682</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D77" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F77" t="n">
-        <v>3783</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43912</v>
+        <v>43944</v>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>452</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43913</v>
+        <v>43945</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F79" t="n">
-        <v>553</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="80">
@@ -2177,19 +2177,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="81">
@@ -2202,192 +2202,192 @@
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>44033</v>
+        <v>43925</v>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>12675</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>44034</v>
+        <v>43926</v>
       </c>
       <c r="D83" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>12776</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>44038</v>
+        <v>44033</v>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E84" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F84" t="n">
-        <v>13181</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>44039</v>
+        <v>44034</v>
       </c>
       <c r="D85" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F85" t="n">
-        <v>13282</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43920</v>
+        <v>44038</v>
       </c>
       <c r="D86" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E86" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F86" t="n">
-        <v>1264</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43921</v>
+        <v>44039</v>
       </c>
       <c r="D87" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E87" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F87" t="n">
-        <v>1365</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D88" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="90">
@@ -2397,19 +2397,19 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D90" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="91">
@@ -2422,16 +2422,16 @@
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D91" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="92">
@@ -2441,19 +2441,19 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D92" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E92" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F92" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="93">
@@ -2466,16 +2466,16 @@
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D93" t="n">
+        <v>12</v>
+      </c>
+      <c r="E93" t="n">
         <v>13</v>
       </c>
-      <c r="E93" t="n">
-        <v>14</v>
-      </c>
       <c r="F93" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="94">
@@ -2485,19 +2485,19 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E94" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F94" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="95">
@@ -2510,29 +2510,29 @@
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D95" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E95" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F95" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D96" t="n">
         <v>18</v>
@@ -2541,20 +2541,20 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D97" t="n">
         <v>17</v>
@@ -2563,139 +2563,139 @@
         <v>18</v>
       </c>
       <c r="F97" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D98" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D99" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E99" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F99" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E100" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D101" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E101" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F101" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F102" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F103" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="104">
@@ -2705,19 +2705,19 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105">
@@ -2730,236 +2730,236 @@
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43979</v>
+        <v>43929</v>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F106" t="n">
-        <v>7237</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43980</v>
+        <v>43930</v>
       </c>
       <c r="D107" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E107" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>7338</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>44040</v>
+        <v>43979</v>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F108" t="n">
-        <v>13399</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>44041</v>
+        <v>43980</v>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>13500</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43927</v>
+        <v>44040</v>
       </c>
       <c r="D110" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>1988</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43928</v>
+        <v>44041</v>
       </c>
       <c r="D111" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E111" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F111" t="n">
-        <v>2089</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D112" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E112" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F112" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D113" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E113" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F113" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E114" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F114" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F115" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="116">
@@ -2969,19 +2969,19 @@
         </is>
       </c>
       <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D116" t="n">
         <v>4</v>
       </c>
-      <c r="C116" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D116" t="n">
-        <v>10</v>
-      </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F116" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="117">
@@ -2994,16 +2994,16 @@
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D117" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="118">
@@ -3013,19 +3013,19 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D118" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E118" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="119">
@@ -3038,16 +3038,16 @@
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D119" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E119" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F119" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="120">
@@ -3060,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D120" t="n">
         <v>14</v>
@@ -3069,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="F120" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="121">
@@ -3082,7 +3082,7 @@
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D121" t="n">
         <v>13</v>
@@ -3091,51 +3091,51 @@
         <v>14</v>
       </c>
       <c r="F121" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D122" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E122" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F122" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D123" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E123" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F123" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="124">
@@ -3145,19 +3145,19 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D124" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E124" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F124" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="125">
@@ -3170,16 +3170,16 @@
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D125" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E125" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F125" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="126">
@@ -3189,19 +3189,19 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D126" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E126" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F126" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="127">
@@ -3214,16 +3214,16 @@
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D127" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E127" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F127" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="128">
@@ -3236,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>44045</v>
+        <v>44000</v>
       </c>
       <c r="D128" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E128" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F128" t="n">
-        <v>13913</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="129">
@@ -3258,144 +3258,144 @@
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>44046</v>
+        <v>44001</v>
       </c>
       <c r="D129" t="n">
+        <v>52</v>
+      </c>
+      <c r="E129" t="n">
         <v>53</v>
       </c>
-      <c r="E129" t="n">
-        <v>54</v>
-      </c>
       <c r="F129" t="n">
-        <v>14014</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
       <c r="C130" s="2" t="n">
-        <v>43908</v>
+        <v>44045</v>
       </c>
       <c r="D130" t="n">
-        <v>5</v>
-      </c>
-      <c r="E130" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="E130" t="n">
+        <v>54</v>
+      </c>
       <c r="F130" t="n">
-        <v>77</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43909</v>
+        <v>44046</v>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E131" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F131" t="n">
-        <v>178</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
       <c r="C132" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D132" t="n">
-        <v>35</v>
-      </c>
-      <c r="E132" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D133" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F133" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D134" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E134" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F134" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D135" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E135" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F135" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="136">
@@ -3408,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D136" t="n">
         <v>15</v>
@@ -3417,7 +3417,7 @@
         <v>14</v>
       </c>
       <c r="F136" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="137">
@@ -3430,7 +3430,7 @@
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D137" t="n">
         <v>14</v>
@@ -3439,51 +3439,51 @@
         <v>15</v>
       </c>
       <c r="F137" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D138" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E138" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F138" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D139" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E139" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F139" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="140">
@@ -3496,16 +3496,16 @@
         <v>1</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D140" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E140" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F140" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="141">
@@ -3518,104 +3518,104 @@
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D141" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E141" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F141" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D142" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E142" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F142" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D143" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E143" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F143" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D144" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F144" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D145" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E145" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F145" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="146">
@@ -3625,19 +3625,19 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D146" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E146" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F146" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="147">
@@ -3650,139 +3650,139 @@
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D147" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E147" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F147" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D148" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E148" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F148" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D149" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E149" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E150" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F150" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>-1</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F151" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D152" t="n">
         <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F152" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -3791,7 +3791,7 @@
         <v>2</v>
       </c>
       <c r="F153" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="154">
@@ -3804,16 +3804,16 @@
         <v>1</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="155">
@@ -3826,15 +3826,59 @@
         <v>-1</v>
       </c>
       <c r="C155" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C157" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D157" t="n">
         <v>2</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E157" t="n">
         <v>3</v>
       </c>
-      <c r="F155" t="n">
+      <c r="F157" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15150</v>
+        <v>15251</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2173,45 +2173,45 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43912</v>
+        <v>44057</v>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F80" t="n">
-        <v>452</v>
+        <v>15095</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43913</v>
+        <v>44058</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F81" t="n">
-        <v>553</v>
+        <v>15196</v>
       </c>
     </row>
     <row r="82">
@@ -2221,19 +2221,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="83">
@@ -2246,192 +2246,192 @@
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>44033</v>
+        <v>43925</v>
       </c>
       <c r="D84" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>12675</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>44034</v>
+        <v>43926</v>
       </c>
       <c r="D85" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>12776</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>44038</v>
+        <v>44033</v>
       </c>
       <c r="D86" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E86" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F86" t="n">
-        <v>13181</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>44039</v>
+        <v>44034</v>
       </c>
       <c r="D87" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F87" t="n">
-        <v>13282</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43920</v>
+        <v>44038</v>
       </c>
       <c r="D88" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F88" t="n">
-        <v>1264</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43921</v>
+        <v>44039</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E89" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>1365</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D90" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D91" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E91" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="92">
@@ -2441,19 +2441,19 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D92" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="93">
@@ -2466,16 +2466,16 @@
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D93" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E93" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F93" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="94">
@@ -2485,19 +2485,19 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D94" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E94" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F94" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="95">
@@ -2510,16 +2510,16 @@
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D95" t="n">
+        <v>12</v>
+      </c>
+      <c r="E95" t="n">
         <v>13</v>
       </c>
-      <c r="E95" t="n">
-        <v>14</v>
-      </c>
       <c r="F95" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="96">
@@ -2529,19 +2529,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D96" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E96" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F96" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="97">
@@ -2554,29 +2554,29 @@
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D97" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E97" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F97" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>1</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D98" t="n">
         <v>18</v>
@@ -2585,20 +2585,20 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D99" t="n">
         <v>17</v>
@@ -2607,139 +2607,139 @@
         <v>18</v>
       </c>
       <c r="F99" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D100" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E100" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D101" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E101" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F101" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E102" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D103" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E103" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F103" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D104" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F104" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F105" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="106">
@@ -2749,19 +2749,19 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D106" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107">
@@ -2774,236 +2774,236 @@
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43979</v>
+        <v>43929</v>
       </c>
       <c r="D108" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E108" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>7237</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43980</v>
+        <v>43930</v>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>7338</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>44040</v>
+        <v>43979</v>
       </c>
       <c r="D110" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F110" t="n">
-        <v>13399</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>44041</v>
+        <v>43980</v>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F111" t="n">
-        <v>13500</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43927</v>
+        <v>44040</v>
       </c>
       <c r="D112" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E112" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>1988</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43928</v>
+        <v>44041</v>
       </c>
       <c r="D113" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F113" t="n">
-        <v>2089</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D114" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E114" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D115" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E115" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F115" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D116" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E116" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F116" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F117" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="118">
@@ -3013,19 +3013,19 @@
         </is>
       </c>
       <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D118" t="n">
         <v>4</v>
       </c>
-      <c r="C118" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D118" t="n">
-        <v>10</v>
-      </c>
       <c r="E118" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F118" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="119">
@@ -3038,16 +3038,16 @@
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D119" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F119" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="120">
@@ -3057,19 +3057,19 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D120" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E120" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F120" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="121">
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D121" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E121" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F121" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="122">
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D122" t="n">
         <v>14</v>
@@ -3113,7 +3113,7 @@
         <v>13</v>
       </c>
       <c r="F122" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="123">
@@ -3126,7 +3126,7 @@
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D123" t="n">
         <v>13</v>
@@ -3135,51 +3135,51 @@
         <v>14</v>
       </c>
       <c r="F123" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D124" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E124" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F124" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D125" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E125" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F125" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="126">
@@ -3189,19 +3189,19 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D126" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E126" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F126" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="127">
@@ -3214,16 +3214,16 @@
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D127" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E127" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F127" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="128">
@@ -3233,19 +3233,19 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D128" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E128" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F128" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="129">
@@ -3258,16 +3258,16 @@
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D129" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E129" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F129" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="130">
@@ -3280,16 +3280,16 @@
         <v>0</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>44045</v>
+        <v>44000</v>
       </c>
       <c r="D130" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E130" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F130" t="n">
-        <v>13913</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="131">
@@ -3302,144 +3302,144 @@
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>44046</v>
+        <v>44001</v>
       </c>
       <c r="D131" t="n">
+        <v>52</v>
+      </c>
+      <c r="E131" t="n">
         <v>53</v>
       </c>
-      <c r="E131" t="n">
-        <v>54</v>
-      </c>
       <c r="F131" t="n">
-        <v>14014</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
       <c r="C132" s="2" t="n">
-        <v>43908</v>
+        <v>44045</v>
       </c>
       <c r="D132" t="n">
-        <v>5</v>
-      </c>
-      <c r="E132" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="E132" t="n">
+        <v>54</v>
+      </c>
       <c r="F132" t="n">
-        <v>77</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43909</v>
+        <v>44046</v>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E133" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F133" t="n">
-        <v>178</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D134" t="n">
-        <v>35</v>
-      </c>
-      <c r="E134" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D135" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E135" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F135" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D136" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E136" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F136" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D137" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E137" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F137" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="138">
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D138" t="n">
         <v>15</v>
@@ -3461,7 +3461,7 @@
         <v>14</v>
       </c>
       <c r="F138" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="139">
@@ -3474,7 +3474,7 @@
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D139" t="n">
         <v>14</v>
@@ -3483,51 +3483,51 @@
         <v>15</v>
       </c>
       <c r="F139" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>1</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D140" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E140" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F140" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D141" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E141" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="142">
@@ -3540,16 +3540,16 @@
         <v>1</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D142" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E142" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F142" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="143">
@@ -3562,104 +3562,104 @@
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D143" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E143" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F143" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D144" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E144" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F144" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D145" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E145" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F145" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D146" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E146" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F146" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E147" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F147" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="148">
@@ -3669,19 +3669,19 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D148" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E148" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="149">
@@ -3694,139 +3694,139 @@
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D149" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F149" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D150" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E150" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F150" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>-1</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D151" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E151" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F151" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F152" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E153" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F153" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D154" t="n">
         <v>2</v>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F154" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>-1</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="F155" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="156">
@@ -3848,16 +3848,16 @@
         <v>1</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="157">
@@ -3870,15 +3870,59 @@
         <v>-1</v>
       </c>
       <c r="C157" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2</v>
+      </c>
+      <c r="F157" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D158" t="n">
+        <v>3</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C159" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D159" t="n">
         <v>2</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E159" t="n">
         <v>3</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F159" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15251</v>
+        <v>15352</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15352</v>
+        <v>15453</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15453</v>
+        <v>15554</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F159"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,45 +1073,45 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>43923</v>
+        <v>44060</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="F30" t="n">
-        <v>1529</v>
+        <v>15365</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>-1</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>43924</v>
+        <v>44061</v>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F31" t="n">
-        <v>1630</v>
+        <v>15466</v>
       </c>
     </row>
     <row r="32">
@@ -1121,19 +1121,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>43933</v>
+        <v>43923</v>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>2539</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="33">
@@ -1146,16 +1146,16 @@
         <v>-1</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43934</v>
+        <v>43924</v>
       </c>
       <c r="D33" t="n">
+        <v>7</v>
+      </c>
+      <c r="E33" t="n">
         <v>8</v>
       </c>
-      <c r="E33" t="n">
-        <v>9</v>
-      </c>
       <c r="F33" t="n">
-        <v>2640</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="34">
@@ -1168,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>43963</v>
+        <v>43933</v>
       </c>
       <c r="D34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>5569</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="35">
@@ -1190,161 +1190,161 @@
         <v>-1</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>43964</v>
+        <v>43934</v>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>5670</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>44054</v>
+        <v>43963</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F36" t="n">
-        <v>14761</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>-1</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>44055</v>
+        <v>43964</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E37" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F37" t="n">
-        <v>14862</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>43929</v>
+        <v>44054</v>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F38" t="n">
-        <v>2137</v>
+        <v>14761</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>-1</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>43930</v>
+        <v>44055</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F39" t="n">
-        <v>2238</v>
+        <v>14862</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>2037</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>-1</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>2138</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>44036</v>
+        <v>43928</v>
       </c>
       <c r="D42" t="n">
         <v>6</v>
@@ -1353,20 +1353,20 @@
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>12946</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>-1</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>44037</v>
+        <v>43929</v>
       </c>
       <c r="D43" t="n">
         <v>5</v>
@@ -1375,95 +1375,95 @@
         <v>6</v>
       </c>
       <c r="F43" t="n">
-        <v>13047</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>43913</v>
+        <v>44036</v>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F44" t="n">
-        <v>526</v>
+        <v>12946</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>-1</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>43914</v>
+        <v>44037</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F45" t="n">
-        <v>627</v>
+        <v>13047</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
         <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>932</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>-1</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>1033</v>
+        <v>627</v>
       </c>
     </row>
     <row r="48">
@@ -1473,19 +1473,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>43920</v>
+        <v>43917</v>
       </c>
       <c r="D48" t="n">
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>1235</v>
+        <v>932</v>
       </c>
     </row>
     <row r="49">
@@ -1498,7 +1498,7 @@
         <v>-1</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>43921</v>
+        <v>43918</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
@@ -1507,95 +1507,95 @@
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>1336</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>43937</v>
+        <v>43920</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2955</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>-1</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>43938</v>
+        <v>43921</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>3056</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>43925</v>
+        <v>43937</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>1745</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>-1</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>43926</v>
+        <v>43938</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>1846</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="54">
@@ -1605,19 +1605,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>43976</v>
+        <v>43925</v>
       </c>
       <c r="D54" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
-        <v>6896</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="55">
@@ -1630,60 +1630,60 @@
         <v>-1</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>43977</v>
+        <v>43926</v>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>6997</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>43917</v>
+        <v>43976</v>
       </c>
       <c r="D56" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" t="n">
-        <v>943</v>
+        <v>6896</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>-1</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>43918</v>
+        <v>43977</v>
       </c>
       <c r="D57" t="n">
+        <v>13</v>
+      </c>
+      <c r="E57" t="n">
         <v>14</v>
       </c>
-      <c r="E57" t="n">
-        <v>15</v>
-      </c>
       <c r="F57" t="n">
-        <v>1044</v>
+        <v>6997</v>
       </c>
     </row>
     <row r="58">
@@ -1693,19 +1693,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>43923</v>
+        <v>43917</v>
       </c>
       <c r="D58" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F58" t="n">
-        <v>1549</v>
+        <v>943</v>
       </c>
     </row>
     <row r="59">
@@ -1718,60 +1718,60 @@
         <v>-1</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D59" t="n">
+        <v>14</v>
+      </c>
+      <c r="E59" t="n">
         <v>15</v>
       </c>
-      <c r="E59" t="n">
-        <v>16</v>
-      </c>
       <c r="F59" t="n">
-        <v>1650</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>43909</v>
+        <v>43923</v>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E60" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F60" t="n">
-        <v>136</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>-1</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>43910</v>
+        <v>43924</v>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>237</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="62">
@@ -1781,19 +1781,19 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43999</v>
+        <v>43909</v>
       </c>
       <c r="D62" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
-        <v>9226</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -1806,60 +1806,60 @@
         <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>44000</v>
+        <v>43910</v>
       </c>
       <c r="D63" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E63" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F63" t="n">
-        <v>9327</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43910</v>
+        <v>43999</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F64" t="n">
-        <v>238</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>-1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>43911</v>
+        <v>44000</v>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F65" t="n">
-        <v>339</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="66">
@@ -1872,16 +1872,16 @@
         <v>0</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43955</v>
+        <v>43910</v>
       </c>
       <c r="D66" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>4783</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67">
@@ -1894,60 +1894,60 @@
         <v>-1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43956</v>
+        <v>43911</v>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>4884</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43927</v>
+        <v>43955</v>
       </c>
       <c r="D68" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E68" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F68" t="n">
-        <v>1957</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>-1</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43928</v>
+        <v>43956</v>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F69" t="n">
-        <v>2058</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="70">
@@ -1957,19 +1957,19 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="D70" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>5492</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="71">
@@ -1982,16 +1982,16 @@
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="D71" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E71" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F71" t="n">
-        <v>5593</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="72">
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>44056</v>
+        <v>43962</v>
       </c>
       <c r="D72" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E72" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F72" t="n">
-        <v>14986</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="73">
@@ -2026,60 +2026,60 @@
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>44057</v>
+        <v>43963</v>
       </c>
       <c r="D73" t="n">
+        <v>12</v>
+      </c>
+      <c r="E73" t="n">
         <v>13</v>
       </c>
-      <c r="E73" t="n">
-        <v>14</v>
-      </c>
       <c r="F73" t="n">
-        <v>15087</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43909</v>
+        <v>44056</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E74" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F74" t="n">
-        <v>146</v>
+        <v>14986</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43910</v>
+        <v>44057</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F75" t="n">
-        <v>247</v>
+        <v>15087</v>
       </c>
     </row>
     <row r="76">
@@ -2089,19 +2089,19 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D76" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -2114,60 +2114,60 @@
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D77" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F77" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="D78" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E78" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F78" t="n">
-        <v>3682</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D79" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E79" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F79" t="n">
-        <v>3783</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="80">
@@ -2177,19 +2177,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>44057</v>
+        <v>43944</v>
       </c>
       <c r="D80" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F80" t="n">
-        <v>15095</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="81">
@@ -2202,60 +2202,60 @@
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>44058</v>
+        <v>43945</v>
       </c>
       <c r="D81" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F81" t="n">
-        <v>15196</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43912</v>
+        <v>44057</v>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F82" t="n">
-        <v>452</v>
+        <v>15095</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43913</v>
+        <v>44058</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>553</v>
+        <v>15196</v>
       </c>
     </row>
     <row r="84">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="85">
@@ -2290,192 +2290,192 @@
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>44033</v>
+        <v>43925</v>
       </c>
       <c r="D86" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>12675</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>44034</v>
+        <v>43926</v>
       </c>
       <c r="D87" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E87" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F87" t="n">
-        <v>12776</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>44038</v>
+        <v>44033</v>
       </c>
       <c r="D88" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E88" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F88" t="n">
-        <v>13181</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>44039</v>
+        <v>44034</v>
       </c>
       <c r="D89" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E89" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F89" t="n">
-        <v>13282</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43920</v>
+        <v>44038</v>
       </c>
       <c r="D90" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E90" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F90" t="n">
-        <v>1264</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43921</v>
+        <v>44039</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F91" t="n">
-        <v>1365</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D92" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D93" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="94">
@@ -2485,19 +2485,19 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D94" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="95">
@@ -2510,16 +2510,16 @@
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F95" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="96">
@@ -2529,19 +2529,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D96" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E96" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F96" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="97">
@@ -2554,16 +2554,16 @@
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D97" t="n">
+        <v>12</v>
+      </c>
+      <c r="E97" t="n">
         <v>13</v>
       </c>
-      <c r="E97" t="n">
-        <v>14</v>
-      </c>
       <c r="F97" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="98">
@@ -2573,19 +2573,19 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D98" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E98" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F98" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="99">
@@ -2598,29 +2598,29 @@
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D99" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E99" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F99" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D100" t="n">
         <v>18</v>
@@ -2629,20 +2629,20 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D101" t="n">
         <v>17</v>
@@ -2651,139 +2651,139 @@
         <v>18</v>
       </c>
       <c r="F101" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D102" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E102" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D103" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E103" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F103" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D104" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D105" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F105" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D106" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F106" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F107" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="108">
@@ -2793,19 +2793,19 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D108" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E108" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109">
@@ -2818,236 +2818,236 @@
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43979</v>
+        <v>43929</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F110" t="n">
-        <v>7237</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43980</v>
+        <v>43930</v>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F111" t="n">
-        <v>7338</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>44040</v>
+        <v>43979</v>
       </c>
       <c r="D112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F112" t="n">
-        <v>13399</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>44041</v>
+        <v>43980</v>
       </c>
       <c r="D113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F113" t="n">
-        <v>13500</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43927</v>
+        <v>44040</v>
       </c>
       <c r="D114" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E114" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>1988</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43928</v>
+        <v>44041</v>
       </c>
       <c r="D115" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E115" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>2089</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D116" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E116" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F116" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D117" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E117" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F117" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E118" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F118" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F119" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="120">
@@ -3057,19 +3057,19 @@
         </is>
       </c>
       <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D120" t="n">
         <v>4</v>
       </c>
-      <c r="C120" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D120" t="n">
-        <v>10</v>
-      </c>
       <c r="E120" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F120" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="121">
@@ -3082,16 +3082,16 @@
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D121" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E121" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="122">
@@ -3101,19 +3101,19 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D122" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E122" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F122" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="123">
@@ -3126,16 +3126,16 @@
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D123" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E123" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F123" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="124">
@@ -3148,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D124" t="n">
         <v>14</v>
@@ -3157,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="F124" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="125">
@@ -3170,7 +3170,7 @@
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D125" t="n">
         <v>13</v>
@@ -3179,51 +3179,51 @@
         <v>14</v>
       </c>
       <c r="F125" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D126" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E126" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F126" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D127" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E127" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F127" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="128">
@@ -3233,19 +3233,19 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D128" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E128" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F128" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="129">
@@ -3258,16 +3258,16 @@
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D129" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E129" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F129" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="130">
@@ -3277,19 +3277,19 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D130" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E130" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F130" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="131">
@@ -3302,16 +3302,16 @@
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D131" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E131" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F131" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="132">
@@ -3324,16 +3324,16 @@
         <v>0</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>44045</v>
+        <v>44000</v>
       </c>
       <c r="D132" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E132" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F132" t="n">
-        <v>13913</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="133">
@@ -3346,144 +3346,144 @@
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>44046</v>
+        <v>44001</v>
       </c>
       <c r="D133" t="n">
+        <v>52</v>
+      </c>
+      <c r="E133" t="n">
         <v>53</v>
       </c>
-      <c r="E133" t="n">
-        <v>54</v>
-      </c>
       <c r="F133" t="n">
-        <v>14014</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
       <c r="C134" s="2" t="n">
-        <v>43908</v>
+        <v>44045</v>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="E134" t="n">
+        <v>54</v>
+      </c>
       <c r="F134" t="n">
-        <v>77</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43909</v>
+        <v>44046</v>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E135" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F135" t="n">
-        <v>178</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D136" t="n">
-        <v>35</v>
-      </c>
-      <c r="E136" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D137" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F137" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D138" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E138" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F138" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D139" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E139" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F139" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="140">
@@ -3496,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D140" t="n">
         <v>15</v>
@@ -3505,7 +3505,7 @@
         <v>14</v>
       </c>
       <c r="F140" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="141">
@@ -3518,7 +3518,7 @@
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D141" t="n">
         <v>14</v>
@@ -3527,51 +3527,51 @@
         <v>15</v>
       </c>
       <c r="F141" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D142" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E142" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F142" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D143" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E143" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F143" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="144">
@@ -3584,16 +3584,16 @@
         <v>1</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D144" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E144" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F144" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="145">
@@ -3606,104 +3606,104 @@
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D145" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E145" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F145" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D146" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E146" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F146" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D147" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E147" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F147" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D148" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E148" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F148" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E149" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F149" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="150">
@@ -3713,19 +3713,19 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D150" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E150" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F150" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="151">
@@ -3738,139 +3738,139 @@
         <v>-1</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F151" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D152" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E152" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F152" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D153" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E153" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E154" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F154" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>-1</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F155" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D156" t="n">
         <v>2</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F156" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>-1</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -3879,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="158">
@@ -3892,16 +3892,16 @@
         <v>1</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="159">
@@ -3914,15 +3914,59 @@
         <v>-1</v>
       </c>
       <c r="C159" s="2" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5453</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>43975</v>
+      </c>
+      <c r="D160" t="n">
+        <v>3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C161" s="2" t="n">
         <v>43976</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D161" t="n">
         <v>2</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E161" t="n">
         <v>3</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F161" t="n">
         <v>6968</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15554</v>
+        <v>15655</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15655</v>
+        <v>15756</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15756</v>
+        <v>15857</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15857</v>
+        <v>15958</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15958</v>
+        <v>16059</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16059</v>
+        <v>16160</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16160</v>
+        <v>16261</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16261</v>
+        <v>16362</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3970,6 +3970,50 @@
         <v>6968</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>6</v>
+      </c>
+      <c r="F162" t="n">
+        <v>16260</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>44070</v>
+      </c>
+      <c r="D163" t="n">
+        <v>6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>16361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16362</v>
+        <v>16665</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,45 +1953,45 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>43927</v>
+        <v>44068</v>
       </c>
       <c r="D70" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>1957</v>
+        <v>16196</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>43928</v>
+        <v>44069</v>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F71" t="n">
-        <v>2058</v>
+        <v>16398</v>
       </c>
     </row>
     <row r="72">
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="D72" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>5492</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="73">
@@ -2026,16 +2026,16 @@
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E73" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F73" t="n">
-        <v>5593</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="74">
@@ -2048,16 +2048,16 @@
         <v>0</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>44056</v>
+        <v>43962</v>
       </c>
       <c r="D74" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E74" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F74" t="n">
-        <v>14986</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="75">
@@ -2070,60 +2070,60 @@
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>44057</v>
+        <v>43963</v>
       </c>
       <c r="D75" t="n">
+        <v>12</v>
+      </c>
+      <c r="E75" t="n">
         <v>13</v>
       </c>
-      <c r="E75" t="n">
-        <v>14</v>
-      </c>
       <c r="F75" t="n">
-        <v>15087</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>43909</v>
+        <v>44056</v>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>146</v>
+        <v>14986</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>43910</v>
+        <v>44057</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F77" t="n">
-        <v>247</v>
+        <v>15087</v>
       </c>
     </row>
     <row r="78">
@@ -2133,19 +2133,19 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D78" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E78" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79">
@@ -2158,60 +2158,60 @@
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D79" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E79" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43944</v>
+        <v>43937</v>
       </c>
       <c r="D80" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F80" t="n">
-        <v>3682</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D81" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F81" t="n">
-        <v>3783</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="82">
@@ -2221,19 +2221,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>44057</v>
+        <v>43944</v>
       </c>
       <c r="D82" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>15095</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="83">
@@ -2246,60 +2246,60 @@
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>44058</v>
+        <v>43945</v>
       </c>
       <c r="D83" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E83" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F83" t="n">
-        <v>15196</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43912</v>
+        <v>44057</v>
       </c>
       <c r="D84" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E84" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F84" t="n">
-        <v>452</v>
+        <v>15095</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43913</v>
+        <v>44058</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F85" t="n">
-        <v>553</v>
+        <v>15196</v>
       </c>
     </row>
     <row r="86">
@@ -2309,19 +2309,19 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="87">
@@ -2334,192 +2334,192 @@
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>44033</v>
+        <v>43925</v>
       </c>
       <c r="D88" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>12675</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>44034</v>
+        <v>43926</v>
       </c>
       <c r="D89" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E89" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>12776</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>44038</v>
+        <v>44033</v>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E90" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F90" t="n">
-        <v>13181</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>44039</v>
+        <v>44034</v>
       </c>
       <c r="D91" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E91" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F91" t="n">
-        <v>13282</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>43920</v>
+        <v>44038</v>
       </c>
       <c r="D92" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E92" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F92" t="n">
-        <v>1264</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>43921</v>
+        <v>44039</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E93" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F93" t="n">
-        <v>1365</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D94" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E94" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D95" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="96">
@@ -2529,19 +2529,19 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D96" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="97">
@@ -2554,16 +2554,16 @@
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D97" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F97" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="98">
@@ -2573,19 +2573,19 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D98" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E98" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="99">
@@ -2598,16 +2598,16 @@
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D99" t="n">
+        <v>12</v>
+      </c>
+      <c r="E99" t="n">
         <v>13</v>
       </c>
-      <c r="E99" t="n">
-        <v>14</v>
-      </c>
       <c r="F99" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="100">
@@ -2617,19 +2617,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D100" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E100" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F100" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="101">
@@ -2642,29 +2642,29 @@
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D101" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E101" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F101" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D102" t="n">
         <v>18</v>
@@ -2673,20 +2673,20 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D103" t="n">
         <v>17</v>
@@ -2695,139 +2695,139 @@
         <v>18</v>
       </c>
       <c r="F103" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D104" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E104" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D105" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E105" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F105" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D106" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E107" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F107" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D108" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F108" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F109" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="110">
@@ -2837,19 +2837,19 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D110" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111">
@@ -2862,236 +2862,236 @@
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43979</v>
+        <v>43929</v>
       </c>
       <c r="D112" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F112" t="n">
-        <v>7237</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43980</v>
+        <v>43930</v>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E113" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F113" t="n">
-        <v>7338</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>44040</v>
+        <v>43979</v>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>13399</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>44041</v>
+        <v>43980</v>
       </c>
       <c r="D115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F115" t="n">
-        <v>13500</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43927</v>
+        <v>44040</v>
       </c>
       <c r="D116" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>1988</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43928</v>
+        <v>44041</v>
       </c>
       <c r="D117" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>2089</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D118" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E118" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F118" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D119" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E119" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F119" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E120" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F120" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F121" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="122">
@@ -3101,19 +3101,19 @@
         </is>
       </c>
       <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D122" t="n">
         <v>4</v>
       </c>
-      <c r="C122" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D122" t="n">
-        <v>10</v>
-      </c>
       <c r="E122" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F122" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="123">
@@ -3126,16 +3126,16 @@
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D123" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E123" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F123" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="124">
@@ -3145,19 +3145,19 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D124" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E124" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F124" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="125">
@@ -3170,16 +3170,16 @@
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D125" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E125" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F125" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="126">
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D126" t="n">
         <v>14</v>
@@ -3201,7 +3201,7 @@
         <v>13</v>
       </c>
       <c r="F126" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="127">
@@ -3214,7 +3214,7 @@
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D127" t="n">
         <v>13</v>
@@ -3223,51 +3223,51 @@
         <v>14</v>
       </c>
       <c r="F127" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D128" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E128" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F128" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D129" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E129" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F129" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="130">
@@ -3277,19 +3277,19 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D130" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E130" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F130" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="131">
@@ -3302,16 +3302,16 @@
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D131" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E131" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F131" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="132">
@@ -3321,19 +3321,19 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D132" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E132" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F132" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="133">
@@ -3346,16 +3346,16 @@
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D133" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E133" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F133" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="134">
@@ -3368,16 +3368,16 @@
         <v>0</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>44045</v>
+        <v>44000</v>
       </c>
       <c r="D134" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E134" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F134" t="n">
-        <v>13913</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="135">
@@ -3390,144 +3390,144 @@
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>44046</v>
+        <v>44001</v>
       </c>
       <c r="D135" t="n">
+        <v>52</v>
+      </c>
+      <c r="E135" t="n">
         <v>53</v>
       </c>
-      <c r="E135" t="n">
-        <v>54</v>
-      </c>
       <c r="F135" t="n">
-        <v>14014</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
       <c r="C136" s="2" t="n">
-        <v>43908</v>
+        <v>44045</v>
       </c>
       <c r="D136" t="n">
-        <v>5</v>
-      </c>
-      <c r="E136" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="E136" t="n">
+        <v>54</v>
+      </c>
       <c r="F136" t="n">
-        <v>77</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43909</v>
+        <v>44046</v>
       </c>
       <c r="D137" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F137" t="n">
-        <v>178</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D138" t="n">
-        <v>35</v>
-      </c>
-      <c r="E138" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D139" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E139" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F139" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D140" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E140" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F140" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D141" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E141" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F141" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="142">
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D142" t="n">
         <v>15</v>
@@ -3549,7 +3549,7 @@
         <v>14</v>
       </c>
       <c r="F142" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="143">
@@ -3562,7 +3562,7 @@
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D143" t="n">
         <v>14</v>
@@ -3571,51 +3571,51 @@
         <v>15</v>
       </c>
       <c r="F143" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D144" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E144" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F144" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D145" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E145" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F145" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="146">
@@ -3628,16 +3628,16 @@
         <v>1</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D146" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E146" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F146" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="147">
@@ -3650,104 +3650,104 @@
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D147" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E147" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F147" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D148" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E148" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F148" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D149" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E149" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F149" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43923</v>
+        <v>43942</v>
       </c>
       <c r="D150" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E150" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F150" t="n">
-        <v>1605</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>-1</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>43924</v>
+        <v>43943</v>
       </c>
       <c r="D151" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E151" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F151" t="n">
-        <v>1706</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="152">
@@ -3757,19 +3757,19 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D152" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F152" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="153">
@@ -3782,139 +3782,139 @@
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D153" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E153" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F153" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D154" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E154" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F154" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>-1</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D155" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E155" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E156" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F156" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>-1</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E157" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F157" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D158" t="n">
         <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F158" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>-1</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -3923,7 +3923,7 @@
         <v>2</v>
       </c>
       <c r="F159" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="160">
@@ -3936,16 +3936,16 @@
         <v>1</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="161">
@@ -3958,16 +3958,16 @@
         <v>-1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>43976</v>
+        <v>43961</v>
       </c>
       <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="n">
         <v>2</v>
       </c>
-      <c r="E161" t="n">
-        <v>3</v>
-      </c>
       <c r="F161" t="n">
-        <v>6968</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="162">
@@ -3980,16 +3980,16 @@
         <v>1</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>44068</v>
+        <v>43975</v>
       </c>
       <c r="D162" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E162" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F162" t="n">
-        <v>16260</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="163">
@@ -4002,15 +4002,59 @@
         <v>-1</v>
       </c>
       <c r="C163" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3</v>
+      </c>
+      <c r="F163" t="n">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>44069</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6</v>
+      </c>
+      <c r="F164" t="n">
+        <v>16462</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C165" s="2" t="n">
         <v>44070</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D165" t="n">
         <v>6</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E165" t="n">
         <v>7</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F165" t="n">
         <v>16361</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16665</v>
+        <v>16766</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16766</v>
+        <v>16867</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16867</v>
+        <v>16968</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16968</v>
+        <v>17069</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3753,45 +3753,45 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43923</v>
+        <v>44075</v>
       </c>
       <c r="D152" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E152" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F152" t="n">
-        <v>1605</v>
+        <v>16952</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>43924</v>
+        <v>44076</v>
       </c>
       <c r="D153" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E153" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F153" t="n">
-        <v>1706</v>
+        <v>17053</v>
       </c>
     </row>
     <row r="154">
@@ -3801,19 +3801,19 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D154" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E154" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F154" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="155">
@@ -3826,139 +3826,139 @@
         <v>-1</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D155" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E155" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F155" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D156" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E156" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F156" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>-1</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D157" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E157" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F157" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E158" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F158" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>-1</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F159" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D160" t="n">
         <v>2</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>-1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3967,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="F161" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="162">
@@ -3980,16 +3980,16 @@
         <v>1</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="163">
@@ -4002,16 +4002,16 @@
         <v>-1</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>43976</v>
+        <v>43961</v>
       </c>
       <c r="D163" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" t="n">
         <v>2</v>
       </c>
-      <c r="E163" t="n">
-        <v>3</v>
-      </c>
       <c r="F163" t="n">
-        <v>6968</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="164">
@@ -4021,19 +4021,19 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>44069</v>
+        <v>43975</v>
       </c>
       <c r="D164" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E164" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
-        <v>16462</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="165">
@@ -4046,15 +4046,59 @@
         <v>-1</v>
       </c>
       <c r="C165" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>44069</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>16462</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C167" s="2" t="n">
         <v>44070</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D167" t="n">
         <v>6</v>
       </c>
-      <c r="E165" t="n">
+      <c r="E167" t="n">
         <v>7</v>
       </c>
-      <c r="F165" t="n">
+      <c r="F167" t="n">
         <v>16361</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17069</v>
+        <v>17170</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F167"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,45 +2217,45 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>43944</v>
+        <v>44076</v>
       </c>
       <c r="D82" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E82" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F82" t="n">
-        <v>3682</v>
+        <v>17013</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>43945</v>
+        <v>44077</v>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E83" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F83" t="n">
-        <v>3783</v>
+        <v>17114</v>
       </c>
     </row>
     <row r="84">
@@ -2265,19 +2265,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>44057</v>
+        <v>43944</v>
       </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>15095</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="85">
@@ -2290,60 +2290,60 @@
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>44058</v>
+        <v>43945</v>
       </c>
       <c r="D85" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F85" t="n">
-        <v>15196</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>43912</v>
+        <v>44057</v>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F86" t="n">
-        <v>452</v>
+        <v>15095</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>43913</v>
+        <v>44058</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E87" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>553</v>
+        <v>15196</v>
       </c>
     </row>
     <row r="88">
@@ -2353,19 +2353,19 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="89">
@@ -2378,192 +2378,192 @@
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>44033</v>
+        <v>43925</v>
       </c>
       <c r="D90" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>12675</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>44034</v>
+        <v>43926</v>
       </c>
       <c r="D91" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>12776</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>44038</v>
+        <v>44033</v>
       </c>
       <c r="D92" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E92" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F92" t="n">
-        <v>13181</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>44039</v>
+        <v>44034</v>
       </c>
       <c r="D93" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F93" t="n">
-        <v>13282</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>43920</v>
+        <v>44038</v>
       </c>
       <c r="D94" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>1264</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>43921</v>
+        <v>44039</v>
       </c>
       <c r="D95" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F95" t="n">
-        <v>1365</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D96" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E96" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D97" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="98">
@@ -2573,19 +2573,19 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D98" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="99">
@@ -2598,16 +2598,16 @@
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D99" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F99" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="100">
@@ -2617,19 +2617,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D100" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E100" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F100" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="101">
@@ -2642,16 +2642,16 @@
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D101" t="n">
+        <v>12</v>
+      </c>
+      <c r="E101" t="n">
         <v>13</v>
       </c>
-      <c r="E101" t="n">
-        <v>14</v>
-      </c>
       <c r="F101" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="102">
@@ -2661,19 +2661,19 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D102" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E102" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F102" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="103">
@@ -2686,29 +2686,29 @@
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D103" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E103" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F103" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>1</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D104" t="n">
         <v>18</v>
@@ -2717,20 +2717,20 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D105" t="n">
         <v>17</v>
@@ -2739,139 +2739,139 @@
         <v>18</v>
       </c>
       <c r="F105" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D106" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E106" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D107" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E107" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F107" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D108" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E109" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F109" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D110" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F110" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E111" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F111" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="112">
@@ -2881,19 +2881,19 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D112" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113">
@@ -2906,236 +2906,236 @@
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43979</v>
+        <v>43929</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F114" t="n">
-        <v>7237</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43980</v>
+        <v>43930</v>
       </c>
       <c r="D115" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E115" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F115" t="n">
-        <v>7338</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>44040</v>
+        <v>43979</v>
       </c>
       <c r="D116" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F116" t="n">
-        <v>13399</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>44041</v>
+        <v>43980</v>
       </c>
       <c r="D117" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E117" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F117" t="n">
-        <v>13500</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>43927</v>
+        <v>44040</v>
       </c>
       <c r="D118" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E118" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>1988</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>43928</v>
+        <v>44041</v>
       </c>
       <c r="D119" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F119" t="n">
-        <v>2089</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D120" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E120" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F120" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D121" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E121" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F121" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D122" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E122" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F122" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E123" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F123" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="124">
@@ -3145,19 +3145,19 @@
         </is>
       </c>
       <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D124" t="n">
         <v>4</v>
       </c>
-      <c r="C124" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D124" t="n">
-        <v>10</v>
-      </c>
       <c r="E124" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F124" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="125">
@@ -3170,16 +3170,16 @@
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D125" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E125" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F125" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="126">
@@ -3189,19 +3189,19 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D126" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E126" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F126" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="127">
@@ -3214,16 +3214,16 @@
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D127" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E127" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F127" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="128">
@@ -3236,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D128" t="n">
         <v>14</v>
@@ -3245,7 +3245,7 @@
         <v>13</v>
       </c>
       <c r="F128" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="129">
@@ -3258,7 +3258,7 @@
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D129" t="n">
         <v>13</v>
@@ -3267,51 +3267,51 @@
         <v>14</v>
       </c>
       <c r="F129" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D130" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E130" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F130" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B131" t="n">
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D131" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E131" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F131" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="132">
@@ -3321,19 +3321,19 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D132" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E132" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F132" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="133">
@@ -3346,16 +3346,16 @@
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D133" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E133" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F133" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="134">
@@ -3365,19 +3365,19 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D134" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E134" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F134" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="135">
@@ -3390,16 +3390,16 @@
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D135" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E135" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F135" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="136">
@@ -3412,16 +3412,16 @@
         <v>0</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>44045</v>
+        <v>44000</v>
       </c>
       <c r="D136" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E136" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F136" t="n">
-        <v>13913</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="137">
@@ -3434,144 +3434,144 @@
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>44046</v>
+        <v>44001</v>
       </c>
       <c r="D137" t="n">
+        <v>52</v>
+      </c>
+      <c r="E137" t="n">
         <v>53</v>
       </c>
-      <c r="E137" t="n">
-        <v>54</v>
-      </c>
       <c r="F137" t="n">
-        <v>14014</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
       <c r="C138" s="2" t="n">
-        <v>43908</v>
+        <v>44045</v>
       </c>
       <c r="D138" t="n">
-        <v>5</v>
-      </c>
-      <c r="E138" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="E138" t="n">
+        <v>54</v>
+      </c>
       <c r="F138" t="n">
-        <v>77</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>43909</v>
+        <v>44046</v>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E139" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F139" t="n">
-        <v>178</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D140" t="n">
-        <v>35</v>
-      </c>
-      <c r="E140" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D141" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E141" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F141" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D142" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E142" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F142" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D143" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F143" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="144">
@@ -3584,7 +3584,7 @@
         <v>1</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D144" t="n">
         <v>15</v>
@@ -3593,7 +3593,7 @@
         <v>14</v>
       </c>
       <c r="F144" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="145">
@@ -3606,7 +3606,7 @@
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D145" t="n">
         <v>14</v>
@@ -3615,51 +3615,51 @@
         <v>15</v>
       </c>
       <c r="F145" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D146" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E146" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F146" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D147" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E147" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F147" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="148">
@@ -3672,16 +3672,16 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D148" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E148" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F148" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="149">
@@ -3694,60 +3694,60 @@
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D149" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E149" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F149" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D150" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E150" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F150" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>-1</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D151" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E151" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F151" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="152">
@@ -3760,16 +3760,16 @@
         <v>0</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>44075</v>
+        <v>43942</v>
       </c>
       <c r="D152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E152" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F152" t="n">
-        <v>16952</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="153">
@@ -3782,60 +3782,60 @@
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>44076</v>
+        <v>43943</v>
       </c>
       <c r="D153" t="n">
+        <v>10</v>
+      </c>
+      <c r="E153" t="n">
         <v>11</v>
       </c>
-      <c r="E153" t="n">
-        <v>12</v>
-      </c>
       <c r="F153" t="n">
-        <v>17053</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>43923</v>
+        <v>44075</v>
       </c>
       <c r="D154" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E154" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F154" t="n">
-        <v>1605</v>
+        <v>16952</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>-1</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>43924</v>
+        <v>44076</v>
       </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E155" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F155" t="n">
-        <v>1706</v>
+        <v>17053</v>
       </c>
     </row>
     <row r="156">
@@ -3845,19 +3845,19 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D156" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E156" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F156" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="157">
@@ -3870,139 +3870,139 @@
         <v>-1</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D157" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E157" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F157" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D158" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E158" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F158" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>-1</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D159" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E159" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F159" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E160" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F160" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>-1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E161" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F161" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D162" t="n">
         <v>2</v>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F162" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>-1</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D163" t="n">
         <v>1</v>
@@ -4011,7 +4011,7 @@
         <v>2</v>
       </c>
       <c r="F163" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="164">
@@ -4024,16 +4024,16 @@
         <v>1</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="165">
@@ -4046,16 +4046,16 @@
         <v>-1</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>43976</v>
+        <v>43961</v>
       </c>
       <c r="D165" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" t="n">
         <v>2</v>
       </c>
-      <c r="E165" t="n">
-        <v>3</v>
-      </c>
       <c r="F165" t="n">
-        <v>6968</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="166">
@@ -4065,19 +4065,19 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>44069</v>
+        <v>43975</v>
       </c>
       <c r="D166" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E166" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F166" t="n">
-        <v>16462</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="167">
@@ -4090,15 +4090,59 @@
         <v>-1</v>
       </c>
       <c r="C167" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>44069</v>
+      </c>
+      <c r="D168" t="n">
+        <v>6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>16462</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C169" s="2" t="n">
         <v>44070</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D169" t="n">
         <v>6</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E169" t="n">
         <v>7</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F169" t="n">
         <v>16361</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17170</v>
+        <v>17271</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17271</v>
+        <v>17372</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17372</v>
+        <v>17473</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17473</v>
+        <v>17574</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17574</v>
+        <v>17675</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17675</v>
+        <v>17776</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3009,177 +3009,177 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>44040</v>
+        <v>44082</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E118" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F118" t="n">
-        <v>13399</v>
+        <v>17640</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>44041</v>
+        <v>44083</v>
       </c>
       <c r="D119" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E119" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F119" t="n">
-        <v>13500</v>
+        <v>17741</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>43927</v>
+        <v>44040</v>
       </c>
       <c r="D120" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>1988</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>43928</v>
+        <v>44041</v>
       </c>
       <c r="D121" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E121" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>2089</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D122" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E122" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F122" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D123" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E123" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F123" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E124" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F124" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E125" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F125" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="126">
@@ -3189,19 +3189,19 @@
         </is>
       </c>
       <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D126" t="n">
         <v>4</v>
       </c>
-      <c r="C126" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D126" t="n">
-        <v>10</v>
-      </c>
       <c r="E126" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="127">
@@ -3214,16 +3214,16 @@
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D127" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F127" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="128">
@@ -3233,19 +3233,19 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D128" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E128" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F128" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="129">
@@ -3258,16 +3258,16 @@
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D129" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E129" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F129" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="130">
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D130" t="n">
         <v>14</v>
@@ -3289,7 +3289,7 @@
         <v>13</v>
       </c>
       <c r="F130" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="131">
@@ -3302,7 +3302,7 @@
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D131" t="n">
         <v>13</v>
@@ -3311,51 +3311,51 @@
         <v>14</v>
       </c>
       <c r="F131" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D132" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E132" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F132" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B133" t="n">
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D133" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E133" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F133" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="134">
@@ -3365,19 +3365,19 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D134" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E134" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F134" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="135">
@@ -3390,16 +3390,16 @@
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D135" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E135" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F135" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="136">
@@ -3409,19 +3409,19 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D136" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E136" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F136" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="137">
@@ -3434,16 +3434,16 @@
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D137" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E137" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F137" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="138">
@@ -3456,16 +3456,16 @@
         <v>0</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>44045</v>
+        <v>44000</v>
       </c>
       <c r="D138" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E138" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F138" t="n">
-        <v>13913</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="139">
@@ -3478,144 +3478,144 @@
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>44046</v>
+        <v>44001</v>
       </c>
       <c r="D139" t="n">
+        <v>52</v>
+      </c>
+      <c r="E139" t="n">
         <v>53</v>
       </c>
-      <c r="E139" t="n">
-        <v>54</v>
-      </c>
       <c r="F139" t="n">
-        <v>14014</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
       <c r="C140" s="2" t="n">
-        <v>43908</v>
+        <v>44045</v>
       </c>
       <c r="D140" t="n">
-        <v>5</v>
-      </c>
-      <c r="E140" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="E140" t="n">
+        <v>54</v>
+      </c>
       <c r="F140" t="n">
-        <v>77</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>43909</v>
+        <v>44046</v>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E141" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F141" t="n">
-        <v>178</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D142" t="n">
-        <v>35</v>
-      </c>
-      <c r="E142" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D143" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F143" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D144" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E144" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F144" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D145" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E145" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F145" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="146">
@@ -3628,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D146" t="n">
         <v>15</v>
@@ -3637,7 +3637,7 @@
         <v>14</v>
       </c>
       <c r="F146" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="147">
@@ -3650,7 +3650,7 @@
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D147" t="n">
         <v>14</v>
@@ -3659,51 +3659,51 @@
         <v>15</v>
       </c>
       <c r="F147" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D148" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E148" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F148" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D149" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E149" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F149" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="150">
@@ -3716,16 +3716,16 @@
         <v>1</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D150" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E150" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F150" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="151">
@@ -3738,60 +3738,60 @@
         <v>-1</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D151" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E151" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F151" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D152" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E152" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F152" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E153" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F153" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="154">
@@ -3804,16 +3804,16 @@
         <v>0</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>44075</v>
+        <v>43942</v>
       </c>
       <c r="D154" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E154" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F154" t="n">
-        <v>16952</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="155">
@@ -3826,60 +3826,60 @@
         <v>-1</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>44076</v>
+        <v>43943</v>
       </c>
       <c r="D155" t="n">
+        <v>10</v>
+      </c>
+      <c r="E155" t="n">
         <v>11</v>
       </c>
-      <c r="E155" t="n">
-        <v>12</v>
-      </c>
       <c r="F155" t="n">
-        <v>17053</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>43923</v>
+        <v>44075</v>
       </c>
       <c r="D156" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E156" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F156" t="n">
-        <v>1605</v>
+        <v>16952</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>-1</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>43924</v>
+        <v>44076</v>
       </c>
       <c r="D157" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E157" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F157" t="n">
-        <v>1706</v>
+        <v>17053</v>
       </c>
     </row>
     <row r="158">
@@ -3889,19 +3889,19 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D158" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E158" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F158" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="159">
@@ -3914,139 +3914,139 @@
         <v>-1</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D159" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E159" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F159" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D160" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E160" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F160" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>-1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D161" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E161" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F161" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E162" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F162" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>-1</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E163" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F163" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D164" t="n">
         <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>-1</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D165" t="n">
         <v>1</v>
@@ -4055,7 +4055,7 @@
         <v>2</v>
       </c>
       <c r="F165" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="166">
@@ -4068,16 +4068,16 @@
         <v>1</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="167">
@@ -4090,16 +4090,16 @@
         <v>-1</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>43976</v>
+        <v>43961</v>
       </c>
       <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="n">
         <v>2</v>
       </c>
-      <c r="E167" t="n">
-        <v>3</v>
-      </c>
       <c r="F167" t="n">
-        <v>6968</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="168">
@@ -4109,19 +4109,19 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>44069</v>
+        <v>43975</v>
       </c>
       <c r="D168" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F168" t="n">
-        <v>16462</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="169">
@@ -4134,15 +4134,59 @@
         <v>-1</v>
       </c>
       <c r="C169" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>44069</v>
+      </c>
+      <c r="D170" t="n">
+        <v>6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6</v>
+      </c>
+      <c r="F170" t="n">
+        <v>16462</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C171" s="2" t="n">
         <v>44070</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D171" t="n">
         <v>6</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E171" t="n">
         <v>7</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F171" t="n">
         <v>16361</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17776</v>
+        <v>17877</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1777,45 +1777,45 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>43909</v>
+        <v>44083</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="F62" t="n">
-        <v>136</v>
+        <v>17709</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>43910</v>
+        <v>44084</v>
       </c>
       <c r="D63" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E63" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F63" t="n">
-        <v>237</v>
+        <v>17810</v>
       </c>
     </row>
     <row r="64">
@@ -1825,19 +1825,19 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>43999</v>
+        <v>43909</v>
       </c>
       <c r="D64" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>9226</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -1850,60 +1850,60 @@
         <v>-1</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>44000</v>
+        <v>43910</v>
       </c>
       <c r="D65" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
-        <v>9327</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>43910</v>
+        <v>43999</v>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E66" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F66" t="n">
-        <v>238</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>-1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>43911</v>
+        <v>44000</v>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F67" t="n">
-        <v>339</v>
+        <v>9327</v>
       </c>
     </row>
     <row r="68">
@@ -1916,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>43955</v>
+        <v>43910</v>
       </c>
       <c r="D68" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>4783</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69">
@@ -1938,16 +1938,16 @@
         <v>-1</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>43956</v>
+        <v>43911</v>
       </c>
       <c r="D69" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E69" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>4884</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70">
@@ -1960,16 +1960,16 @@
         <v>0</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>44068</v>
+        <v>43955</v>
       </c>
       <c r="D70" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F70" t="n">
-        <v>16196</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="71">
@@ -1982,60 +1982,60 @@
         <v>-1</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>44069</v>
+        <v>43956</v>
       </c>
       <c r="D71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F71" t="n">
-        <v>16398</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>43927</v>
+        <v>44068</v>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>1957</v>
+        <v>16196</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>-1</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>43928</v>
+        <v>44069</v>
       </c>
       <c r="D73" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E73" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F73" t="n">
-        <v>2058</v>
+        <v>16398</v>
       </c>
     </row>
     <row r="74">
@@ -2045,19 +2045,19 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>43962</v>
+        <v>43927</v>
       </c>
       <c r="D74" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>5492</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="75">
@@ -2070,16 +2070,16 @@
         <v>-1</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>43963</v>
+        <v>43928</v>
       </c>
       <c r="D75" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E75" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F75" t="n">
-        <v>5593</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="76">
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>44056</v>
+        <v>43962</v>
       </c>
       <c r="D76" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E76" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F76" t="n">
-        <v>14986</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="77">
@@ -2114,60 +2114,60 @@
         <v>-1</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>44057</v>
+        <v>43963</v>
       </c>
       <c r="D77" t="n">
+        <v>12</v>
+      </c>
+      <c r="E77" t="n">
         <v>13</v>
       </c>
-      <c r="E77" t="n">
-        <v>14</v>
-      </c>
       <c r="F77" t="n">
-        <v>15087</v>
+        <v>5593</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>43909</v>
+        <v>44056</v>
       </c>
       <c r="D78" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E78" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F78" t="n">
-        <v>146</v>
+        <v>14986</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>-1</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>43910</v>
+        <v>44057</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E79" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F79" t="n">
-        <v>247</v>
+        <v>15087</v>
       </c>
     </row>
     <row r="80">
@@ -2177,19 +2177,19 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>43937</v>
+        <v>43909</v>
       </c>
       <c r="D80" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>2974</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -2202,16 +2202,16 @@
         <v>-1</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>43938</v>
+        <v>43910</v>
       </c>
       <c r="D81" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F81" t="n">
-        <v>3075</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82">
@@ -2221,19 +2221,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>44076</v>
+        <v>43937</v>
       </c>
       <c r="D82" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E82" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F82" t="n">
-        <v>17013</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="83">
@@ -2246,60 +2246,60 @@
         <v>-1</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>44077</v>
+        <v>43938</v>
       </c>
       <c r="D83" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E83" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F83" t="n">
-        <v>17114</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>43944</v>
+        <v>44076</v>
       </c>
       <c r="D84" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E84" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F84" t="n">
-        <v>3682</v>
+        <v>17013</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>-1</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>43945</v>
+        <v>44077</v>
       </c>
       <c r="D85" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F85" t="n">
-        <v>3783</v>
+        <v>17114</v>
       </c>
     </row>
     <row r="86">
@@ -2309,19 +2309,19 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>44057</v>
+        <v>43944</v>
       </c>
       <c r="D86" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>15095</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="87">
@@ -2334,60 +2334,60 @@
         <v>-1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>44058</v>
+        <v>43945</v>
       </c>
       <c r="D87" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F87" t="n">
-        <v>15196</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>43912</v>
+        <v>44057</v>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F88" t="n">
-        <v>452</v>
+        <v>15095</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>-1</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>43913</v>
+        <v>44058</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>553</v>
+        <v>15196</v>
       </c>
     </row>
     <row r="90">
@@ -2397,19 +2397,19 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>43925</v>
+        <v>43912</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>1765</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91">
@@ -2422,192 +2422,192 @@
         <v>-1</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>43926</v>
+        <v>43913</v>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>1866</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>44033</v>
+        <v>43925</v>
       </c>
       <c r="D92" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>12675</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B93" t="n">
         <v>-1</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>44034</v>
+        <v>43926</v>
       </c>
       <c r="D93" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E93" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>12776</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>44038</v>
+        <v>44033</v>
       </c>
       <c r="D94" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E94" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F94" t="n">
-        <v>13181</v>
+        <v>12675</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>-1</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>44039</v>
+        <v>44034</v>
       </c>
       <c r="D95" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E95" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F95" t="n">
-        <v>13282</v>
+        <v>12776</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>43920</v>
+        <v>44038</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
-        <v>1264</v>
+        <v>13181</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>-1</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>43921</v>
+        <v>44039</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E97" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F97" t="n">
-        <v>1365</v>
+        <v>13282</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="D98" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E98" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>661</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>-1</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>43915</v>
+        <v>43921</v>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E99" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>762</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="100">
@@ -2617,19 +2617,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="D100" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>1065</v>
+        <v>661</v>
       </c>
     </row>
     <row r="101">
@@ -2642,16 +2642,16 @@
         <v>-1</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="D101" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E101" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F101" t="n">
-        <v>1166</v>
+        <v>762</v>
       </c>
     </row>
     <row r="102">
@@ -2661,19 +2661,19 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D102" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E102" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F102" t="n">
-        <v>1671</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="103">
@@ -2686,16 +2686,16 @@
         <v>-1</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>43925</v>
+        <v>43919</v>
       </c>
       <c r="D103" t="n">
+        <v>12</v>
+      </c>
+      <c r="E103" t="n">
         <v>13</v>
       </c>
-      <c r="E103" t="n">
-        <v>14</v>
-      </c>
       <c r="F103" t="n">
-        <v>1772</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="104">
@@ -2705,19 +2705,19 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>43931</v>
+        <v>43924</v>
       </c>
       <c r="D104" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E104" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F104" t="n">
-        <v>2378</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="105">
@@ -2730,29 +2730,29 @@
         <v>-1</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>43932</v>
+        <v>43925</v>
       </c>
       <c r="D105" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E105" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F105" t="n">
-        <v>2479</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>43915</v>
+        <v>43931</v>
       </c>
       <c r="D106" t="n">
         <v>18</v>
@@ -2761,20 +2761,20 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>767</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>-1</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>43916</v>
+        <v>43932</v>
       </c>
       <c r="D107" t="n">
         <v>17</v>
@@ -2783,139 +2783,139 @@
         <v>18</v>
       </c>
       <c r="F107" t="n">
-        <v>868</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>43910</v>
+        <v>43915</v>
       </c>
       <c r="D108" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>265</v>
+        <v>767</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>-1</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>43911</v>
+        <v>43916</v>
       </c>
       <c r="D109" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E109" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F109" t="n">
-        <v>366</v>
+        <v>868</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>43943</v>
+        <v>43910</v>
       </c>
       <c r="D110" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E110" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>3599</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>-1</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>43944</v>
+        <v>43911</v>
       </c>
       <c r="D111" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E111" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F111" t="n">
-        <v>3700</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>43910</v>
+        <v>43943</v>
       </c>
       <c r="D112" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F112" t="n">
-        <v>267</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B113" t="n">
         <v>-1</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>43911</v>
+        <v>43944</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F113" t="n">
-        <v>368</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="114">
@@ -2925,19 +2925,19 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>43929</v>
+        <v>43910</v>
       </c>
       <c r="D114" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E114" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>2186</v>
+        <v>267</v>
       </c>
     </row>
     <row r="115">
@@ -2950,60 +2950,60 @@
         <v>-1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>43930</v>
+        <v>43911</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F115" t="n">
-        <v>2287</v>
+        <v>368</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>43979</v>
+        <v>43929</v>
       </c>
       <c r="D116" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F116" t="n">
-        <v>7237</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>-1</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>43980</v>
+        <v>43930</v>
       </c>
       <c r="D117" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E117" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F117" t="n">
-        <v>7338</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="118">
@@ -3013,19 +3013,19 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>44082</v>
+        <v>43979</v>
       </c>
       <c r="D118" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E118" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>17640</v>
+        <v>7237</v>
       </c>
     </row>
     <row r="119">
@@ -3038,192 +3038,192 @@
         <v>-1</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>44083</v>
+        <v>43980</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E119" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F119" t="n">
-        <v>17741</v>
+        <v>7338</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>1</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>44040</v>
+        <v>44082</v>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E120" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F120" t="n">
-        <v>13399</v>
+        <v>17640</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>-1</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>44041</v>
+        <v>44083</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E121" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F121" t="n">
-        <v>13500</v>
+        <v>17741</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>43927</v>
+        <v>44040</v>
       </c>
       <c r="D122" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F122" t="n">
-        <v>1988</v>
+        <v>13399</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>-1</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>43928</v>
+        <v>44041</v>
       </c>
       <c r="D123" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E123" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F123" t="n">
-        <v>2089</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>43998</v>
+        <v>43927</v>
       </c>
       <c r="D124" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E124" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F124" t="n">
-        <v>9160</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>-1</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>43999</v>
+        <v>43928</v>
       </c>
       <c r="D125" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E125" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F125" t="n">
-        <v>9261</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>43917</v>
+        <v>43998</v>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E126" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F126" t="n">
-        <v>982</v>
+        <v>9160</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B127" t="n">
         <v>-1</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>43918</v>
+        <v>43999</v>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F127" t="n">
-        <v>1083</v>
+        <v>9261</v>
       </c>
     </row>
     <row r="128">
@@ -3233,19 +3233,19 @@
         </is>
       </c>
       <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="D128" t="n">
         <v>4</v>
       </c>
-      <c r="C128" s="2" t="n">
-        <v>43930</v>
-      </c>
-      <c r="D128" t="n">
-        <v>10</v>
-      </c>
       <c r="E128" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F128" t="n">
-        <v>2295</v>
+        <v>982</v>
       </c>
     </row>
     <row r="129">
@@ -3258,16 +3258,16 @@
         <v>-1</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>43931</v>
+        <v>43918</v>
       </c>
       <c r="D129" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F129" t="n">
-        <v>2396</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="130">
@@ -3277,19 +3277,19 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D130" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E130" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F130" t="n">
-        <v>3810</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="131">
@@ -3302,16 +3302,16 @@
         <v>-1</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D131" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E131" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F131" t="n">
-        <v>3911</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="132">
@@ -3324,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="D132" t="n">
         <v>14</v>
@@ -3333,7 +3333,7 @@
         <v>13</v>
       </c>
       <c r="F132" t="n">
-        <v>4113</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="133">
@@ -3346,7 +3346,7 @@
         <v>-1</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="D133" t="n">
         <v>13</v>
@@ -3355,51 +3355,51 @@
         <v>14</v>
       </c>
       <c r="F133" t="n">
-        <v>4214</v>
+        <v>3911</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>43920</v>
+        <v>43948</v>
       </c>
       <c r="D134" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E134" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F134" t="n">
-        <v>1288</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>-1</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>43921</v>
+        <v>43949</v>
       </c>
       <c r="D135" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E135" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F135" t="n">
-        <v>1389</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="136">
@@ -3409,19 +3409,19 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>43923</v>
+        <v>43920</v>
       </c>
       <c r="D136" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E136" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F136" t="n">
-        <v>1591</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="137">
@@ -3434,16 +3434,16 @@
         <v>-1</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>43924</v>
+        <v>43921</v>
       </c>
       <c r="D137" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E137" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F137" t="n">
-        <v>1692</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="138">
@@ -3453,19 +3453,19 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>44000</v>
+        <v>43923</v>
       </c>
       <c r="D138" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E138" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F138" t="n">
-        <v>9368</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="139">
@@ -3478,16 +3478,16 @@
         <v>-1</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>44001</v>
+        <v>43924</v>
       </c>
       <c r="D139" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E139" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F139" t="n">
-        <v>9469</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="140">
@@ -3500,16 +3500,16 @@
         <v>0</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>44045</v>
+        <v>44000</v>
       </c>
       <c r="D140" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E140" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F140" t="n">
-        <v>13913</v>
+        <v>9368</v>
       </c>
     </row>
     <row r="141">
@@ -3522,144 +3522,144 @@
         <v>-1</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>44046</v>
+        <v>44001</v>
       </c>
       <c r="D141" t="n">
+        <v>52</v>
+      </c>
+      <c r="E141" t="n">
         <v>53</v>
       </c>
-      <c r="E141" t="n">
-        <v>54</v>
-      </c>
       <c r="F141" t="n">
-        <v>14014</v>
+        <v>9469</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
       <c r="C142" s="2" t="n">
-        <v>43908</v>
+        <v>44045</v>
       </c>
       <c r="D142" t="n">
-        <v>5</v>
-      </c>
-      <c r="E142" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="E142" t="n">
+        <v>54</v>
+      </c>
       <c r="F142" t="n">
-        <v>77</v>
+        <v>13913</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>-1</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>43909</v>
+        <v>44046</v>
       </c>
       <c r="D143" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="E143" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="F143" t="n">
-        <v>178</v>
+        <v>14014</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>2</v>
-      </c>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr"/>
       <c r="C144" s="2" t="n">
-        <v>43938</v>
+        <v>43908</v>
       </c>
       <c r="D144" t="n">
-        <v>35</v>
-      </c>
-      <c r="E144" t="n">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
-        <v>3109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B145" t="n">
         <v>-1</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>43939</v>
+        <v>43909</v>
       </c>
       <c r="D145" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F145" t="n">
-        <v>3210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="D146" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E146" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F146" t="n">
-        <v>1697</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B147" t="n">
         <v>-1</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>43925</v>
+        <v>43939</v>
       </c>
       <c r="D147" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E147" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F147" t="n">
-        <v>1798</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="148">
@@ -3672,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>43930</v>
+        <v>43924</v>
       </c>
       <c r="D148" t="n">
         <v>15</v>
@@ -3681,7 +3681,7 @@
         <v>14</v>
       </c>
       <c r="F148" t="n">
-        <v>2303</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="149">
@@ -3694,7 +3694,7 @@
         <v>-1</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D149" t="n">
         <v>14</v>
@@ -3703,51 +3703,51 @@
         <v>15</v>
       </c>
       <c r="F149" t="n">
-        <v>2404</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>43945</v>
+        <v>43930</v>
       </c>
       <c r="D150" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E150" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F150" t="n">
-        <v>3821</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>-1</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>43946</v>
+        <v>43931</v>
       </c>
       <c r="D151" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E151" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F151" t="n">
-        <v>3922</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="152">
@@ -3760,16 +3760,16 @@
         <v>1</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D152" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E152" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F152" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="153">
@@ -3782,60 +3782,60 @@
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D153" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E153" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F153" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D154" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E154" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F154" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>-1</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D155" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E155" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F155" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="156">
@@ -3848,16 +3848,16 @@
         <v>0</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>44075</v>
+        <v>43942</v>
       </c>
       <c r="D156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F156" t="n">
-        <v>16952</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="157">
@@ -3870,60 +3870,60 @@
         <v>-1</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>44076</v>
+        <v>43943</v>
       </c>
       <c r="D157" t="n">
+        <v>10</v>
+      </c>
+      <c r="E157" t="n">
         <v>11</v>
       </c>
-      <c r="E157" t="n">
-        <v>12</v>
-      </c>
       <c r="F157" t="n">
-        <v>17053</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>43923</v>
+        <v>44075</v>
       </c>
       <c r="D158" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E158" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F158" t="n">
-        <v>1605</v>
+        <v>16952</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>-1</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>43924</v>
+        <v>44076</v>
       </c>
       <c r="D159" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E159" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F159" t="n">
-        <v>1706</v>
+        <v>17053</v>
       </c>
     </row>
     <row r="160">
@@ -3933,19 +3933,19 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D160" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E160" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F160" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="161">
@@ -3958,139 +3958,139 @@
         <v>-1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D161" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E161" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F161" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D162" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E162" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F162" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>-1</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D163" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E163" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F164" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>-1</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E165" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F165" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D166" t="n">
         <v>2</v>
       </c>
       <c r="E166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F166" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>-1</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D167" t="n">
         <v>1</v>
@@ -4099,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="F167" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="168">
@@ -4112,16 +4112,16 @@
         <v>1</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="169">
@@ -4134,16 +4134,16 @@
         <v>-1</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>43976</v>
+        <v>43961</v>
       </c>
       <c r="D169" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" t="n">
         <v>2</v>
       </c>
-      <c r="E169" t="n">
-        <v>3</v>
-      </c>
       <c r="F169" t="n">
-        <v>6968</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="170">
@@ -4153,19 +4153,19 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>44069</v>
+        <v>43975</v>
       </c>
       <c r="D170" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E170" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F170" t="n">
-        <v>16462</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="171">
@@ -4178,15 +4178,59 @@
         <v>-1</v>
       </c>
       <c r="C171" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="D171" t="n">
+        <v>2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3</v>
+      </c>
+      <c r="F171" t="n">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>44069</v>
+      </c>
+      <c r="D172" t="n">
+        <v>6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>16462</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C173" s="2" t="n">
         <v>44070</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D173" t="n">
         <v>6</v>
       </c>
-      <c r="E171" t="n">
+      <c r="E173" t="n">
         <v>7</v>
       </c>
-      <c r="F171" t="n">
+      <c r="F173" t="n">
         <v>16361</v>
       </c>
     </row>

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17877</v>
+        <v>17978</v>
       </c>
     </row>
     <row r="3">

--- a/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
+++ b/src/output/incoherences_donnees-hospitalieres-etablissements-covid19.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17978</v>
+        <v>18079</v>
       </c>
     </row>
     <row r="3">
@@ -400,7 +400,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3753,45 +3753,45 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>43945</v>
+        <v>44085</v>
       </c>
       <c r="D152" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E152" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F152" t="n">
-        <v>3821</v>
+        <v>17958</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B153" t="n">
         <v>-1</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>43946</v>
+        <v>44086</v>
       </c>
       <c r="D153" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E153" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F153" t="n">
-        <v>3922</v>
+        <v>18059</v>
       </c>
     </row>
     <row r="154">
@@ -3804,16 +3804,16 @@
         <v>1</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>43990</v>
+        <v>43945</v>
       </c>
       <c r="D154" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E154" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F154" t="n">
-        <v>8366</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="155">
@@ -3826,60 +3826,60 @@
         <v>-1</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>43991</v>
+        <v>43946</v>
       </c>
       <c r="D155" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E155" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F155" t="n">
-        <v>8467</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>43942</v>
+        <v>43990</v>
       </c>
       <c r="D156" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E156" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F156" t="n">
-        <v>3519</v>
+        <v>8366</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>-1</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>43943</v>
+        <v>43991</v>
       </c>
       <c r="D157" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E157" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F157" t="n">
-        <v>3620</v>
+        <v>8467</v>
       </c>
     </row>
     <row r="158">
@@ -3892,16 +3892,16 @@
         <v>0</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>44075</v>
+        <v>43942</v>
       </c>
       <c r="D158" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E158" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F158" t="n">
-        <v>16952</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="159">
@@ -3914,60 +3914,60 @@
         <v>-1</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>44076</v>
+        <v>43943</v>
       </c>
       <c r="D159" t="n">
+        <v>10</v>
+      </c>
+      <c r="E159" t="n">
         <v>11</v>
       </c>
-      <c r="E159" t="n">
-        <v>12</v>
-      </c>
       <c r="F159" t="n">
-        <v>17053</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>43923</v>
+        <v>44075</v>
       </c>
       <c r="D160" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E160" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F160" t="n">
-        <v>1605</v>
+        <v>16952</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B161" t="n">
         <v>-1</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>43924</v>
+        <v>44076</v>
       </c>
       <c r="D161" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E161" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F161" t="n">
-        <v>1706</v>
+        <v>17053</v>
       </c>
     </row>
     <row r="162">
@@ -3977,19 +3977,19 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>43943</v>
+        <v>43923</v>
       </c>
       <c r="D162" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E162" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F162" t="n">
-        <v>3625</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="163">
@@ -4002,139 +4002,139 @@
         <v>-1</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>43944</v>
+        <v>43924</v>
       </c>
       <c r="D163" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E163" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F163" t="n">
-        <v>3726</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>43937</v>
+        <v>43943</v>
       </c>
       <c r="D164" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E164" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F164" t="n">
-        <v>3023</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>-1</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>43938</v>
+        <v>43944</v>
       </c>
       <c r="D165" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E165" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>3124</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>44048</v>
+        <v>43937</v>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E166" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="F166" t="n">
-        <v>14238</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>-1</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>44049</v>
+        <v>43938</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E167" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F167" t="n">
-        <v>14339</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>43960</v>
+        <v>44048</v>
       </c>
       <c r="D168" t="n">
         <v>2</v>
       </c>
       <c r="E168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F168" t="n">
-        <v>5352</v>
+        <v>14238</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>-1</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>43961</v>
+        <v>44049</v>
       </c>
       <c r="D169" t="n">
         <v>1</v>
@@ -4143,7 +4143,7 @@
         <v>2</v>
       </c>
       <c r="F169" t="n">
-        <v>5453</v>
+        <v>14339</v>
       </c>
     </row>
     <row r="170">
@@ -4156,16 +4156,16 @@
         <v>1</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>43975</v>
+        <v>43960</v>
       </c>
       <c r="D170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>6867</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="171">
@@ -4178,16 +4178,16 @@
         <v>-1</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>43976</v>
+        <v>43961</v>
       </c>
       <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="n">
         <v>2</v>
       </c>
-      <c r="E171" t="n">
-        <v>3</v>
-      </c>
       <c r="F171" t="n">
-        <v>6968</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="172">
@@ -4197,19 +4197,19 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>44069</v>
+        <v>43975</v>
       </c>
       <c r="D172" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F172" t="n">
-        <v>16462</v>
+        <v>6867</v>
       </c>
     </row>
     <row r="173">
@@ -4222,15 +4222,59 @@
         <v>-1</v>
       </c>
       <c r="C173" s="2" t="n">
+        <v>43976</v>
+      </c>
+      <c r="D173" t="n">
+        <v>2</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>44069</v>
+      </c>
+      <c r="D174" t="n">
+        <v>6</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6</v>
+      </c>
+      <c r="F174" t="n">
+        <v>16462</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C175" s="2" t="n">
         <v>44070</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D175" t="n">
         <v>6</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E175" t="n">
         <v>7</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F175" t="n">
         <v>16361</v>
       </c>
     </row>
